--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES_AZ\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5669F5B-549B-4799-8EA1-8646597BC6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15732" yWindow="528" windowWidth="21600" windowHeight="15552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BI" sheetId="5" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <t>ELCC</t>
   </si>
   <si>
-    <t>AZ1</t>
+    <t>DE1</t>
   </si>
   <si>
-    <t>AZ2</t>
+    <t>DE2</t>
   </si>
   <si>
-    <t>AZ3</t>
+    <t>DE3</t>
   </si>
 </sst>
 </file>
@@ -485,21 +485,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:F7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -535,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -556,18 +556,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -584,22 +584,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -617,7 +617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -630,7 +630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -643,13 +643,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -872,15 +881,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -888,13 +888,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
+    <ds:schemaRef ds:uri="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonathan/Documents/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59678814-3145-4C45-9C70-8383E4657DCA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BI" sheetId="5" r:id="rId1"/>
-    <sheet name="Uni" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="35 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="BI" sheetId="5" r:id="rId2"/>
+    <sheet name="Uni" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="251">
   <si>
     <t>~TradeLinks</t>
   </si>
@@ -54,13 +64,736 @@
   </si>
   <si>
     <t>DE3</t>
+  </si>
+  <si>
+    <t>DE4</t>
+  </si>
+  <si>
+    <t>DE5</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>$offtext</t>
+  </si>
+  <si>
+    <t>Not in reference scenario!!</t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE3','SE2')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'SE3','SE2') + 1500;             </t>
+  </si>
+  <si>
+    <t>!! Project name: SE North-south reinforcements       Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE2','SE3')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'SE2','SE3') + 1500;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NL','UK')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'NL','UK') + 2000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: New Great Britain - Netherlands interconnection       Status: In permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','NL')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'UK','NL') + 2000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','FR')$(YVALUE(YYY) GE 2024) = XKFX(YYY,'UK','FR') + 1800;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Birtib       Status: In permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','UK')$(YVALUE(YYY) GE 2024) = XKFX(YYY,'FR','UK') + 1800;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','FR')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'UK','FR') + 2000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: AQUIND       Status: In permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','UK')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'FR','UK') + 2000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FIN','SE2')$(YVALUE(YYY) GE 2029) = XKFX(YYY,'FIN','SE2') + 800;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Fenno-Skan 1 renewal         Status Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE2','FIN')$(YVALUE(YYY) GE 2029) = XKFX(YYY,'SE2','FIN') + 800;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'PL','DK2')$(YVALUE(YYY) GE 2033) = XKFX(YYY,'PL','DK2') + 600;             </t>
+  </si>
+  <si>
+    <t>!! Project name: DKE - PL-1        Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK2','PL')$(YVALUE(YYY) GE 2033) = XKFX(YYY,'DK2','PL') + 600;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK2','DK1')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'DK2','DK1') + 600;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Great Belt II        Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK1','DK2')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'DK1','DK2') + 600;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK2','DE4-E')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'DK2','DE4-E') + 600;             </t>
+  </si>
+  <si>
+    <t>!! Project name: DKE - DE (Kontek2)       Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-E','DK2')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'DE4-E','DK2') + 600;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE4','DE4-E')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'SE4','DE4-E') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Hansa PowerBridge II        Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-E','SE4')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'DE4-E','SE4') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','DE4-S')$(YVALUE(YYY) GE 2025) = XKFX(YYY,'FR','DE4-S') + 300;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Muhlbach - Eichstetten          Status: Planned but not yet permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-S','FR')$(YVALUE(YYY) GE 2025) = XKFX(YYY,'DE4-S','FR') + 300;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NL','BE')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'NL','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Upgrade BE-NL interconnector VanEyck-Maasbracht          Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','NL')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'BE','NL') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','BE')$(YVALUE(YYY) GE 2028) = XKFX(YYY,'UK','BE') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Nautilus: 2nd interconnector Belgium - UK       Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','UK')$(YVALUE(YYY) GE 2028) = XKFX(YYY,'BE','UK') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','BE')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'FR','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: study Lonny-Achene-Gramme, Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','FR')$(YVALUE(YYY) GE 2030) = XKFX(YYY,'BE','FR') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-W','BE')$(YVALUE(YYY) GE 2028) = XKFX(YYY,'DE4-W','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: 2nd interconnector Belgium - Germany,        Status: Under consideration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','DE4-W')$(YVALUE(YYY) GE 2028) = XKFX(YYY,'BE','DE4-W') + 1000;             </t>
+  </si>
+  <si>
+    <t>$ontext</t>
+  </si>
+  <si>
+    <t>OPEX  [M€/Y]</t>
+  </si>
+  <si>
+    <t>CAPEX [MEURO]</t>
+  </si>
+  <si>
+    <t>* Other projects in TYNDP before 2035</t>
+  </si>
+  <si>
+    <t>!! Source: https://www.montelnews.com/news/1254368/france-approves-route-of-22-gw-interconnector-with-spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'ES','FR')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'ES','FR') + 2200;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','ES')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'FR','ES') + 2200;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','DE4-W')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'UK','DE4-W') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: NeuConnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-W','UK')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'DE4-W','UK') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/Documents/TYNDP%20documents/TYNDP2018/consultation/Main%20Report/TYNDP18%20Exec%20Report%20appendix.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE4','SE3')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'SE4','SE3') + 400;             </t>
+  </si>
+  <si>
+    <t>!! Difference between Reference 2020 and 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE3','SE4')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'SE3','SE4') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/Documents/TYNDP%20documents/TYNDP2018/consultation/Main%20Report/TYNDP18%20Exec%20Report%20appendix.pdf , https://tyndp.entsoe.eu/tyndp2018/projects/projects/170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'LT','PL')$(YVALUE(YYY) GE 2025) = XKFX(YYY,'LT','PL') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Baltics synchro with CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'PL','LT')$(YVALUE(YYY) GE 2025) = XKFX(YYY,'PL','LT') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO5','UK')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'NO5','UK') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: NorthConnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','NO5')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'UK','NO5') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO2','UK')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'NO2','UK') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: North Sea Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','NO2')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'UK','NO2') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','FR')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'UK','FR') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: GridLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','UK')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'FR','UK') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/153</t>
+  </si>
+  <si>
+    <t>!! Project name: France-Alderney-Britain</t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','FR')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'UK','FR') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: IFA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','UK')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'FR','UK') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','FR')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'UK','FR') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: ElecLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','UK')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'FR','UK') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FIN','SE1')$(YVALUE(YYY) GE 2025) = XKFX(YYY,'FIN','SE1') + 900;             </t>
+  </si>
+  <si>
+    <t>!! Project name: 3rd AC Finland-Sweden north , NTC fitted to match numbers in tyndp 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE1','FIN')$(YVALUE(YYY) GE 2025) = XKFX(YYY,'SE1','FIN') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'LV','EE')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'LV','EE') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Estonia-Latvia 3rd IC , NTC fitted to match numbers in tyndp 2027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'EE','LV')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'EE','LV') + 400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','DK1')$(YVALUE(YYY) GE 2023) = XKFX(YYY,'UK','DK1') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Viking DKW-GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK1','UK')$(YVALUE(YYY) GE 2023) = XKFX(YYY,'DK1','UK') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE4','DE4-E')$(YVALUE(YYY) GE 2026) = XKFX(YYY,'SE4','DE4-E') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Hansa PowerBridge I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-E','SE4')$(YVALUE(YYY) GE 2026) = XKFX(YYY,'DE4-E','SE4') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'PL','DE4-E')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'PL','DE4-E') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Project name: GerPol Improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-E','PL')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'DE4-E','PL') + 1500;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NL','DE4-W')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'NL','DE4-W') + 750;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-W','NL')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'DE4-W','NL') + 750;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','DE4-S')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'FR','DE4-S') + 1200;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-S','FR')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'DE4-S','FR') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','DE4-S')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'FR','DE4-S') + 1500;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Vigy - Uchtelfangen area          Status: Planned but not yet permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-S','FR')$(YVALUE(YYY) GE 2027) = XKFX(YYY,'DE4-S','FR') + 1500;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK1','DE4-N')$(YVALUE(YYY) GE 2023) = XKFX(YYY,'DK1','DE4-N') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Project name: DKW-DE, Westcoast          Status: In permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-N','DK1')$(YVALUE(YYY) GE 2023) = XKFX(YYY,'DE4-N','DK1') + 500;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NL','BE')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'NL','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/262</t>
+  </si>
+  <si>
+    <t>!! Project name: Zandvliet-Rilland          Status: Planned but not yet permitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','NL')$(YVALUE(YYY) GE 2022) = XKFX(YYY,'BE','NL') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'FR','BE')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'FR','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Avelin/Mastaing-Avelgem-Horta HTLS AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','FR')$(YVALUE(YYY) GE 2021) = XKFX(YYY,'BE','FR') + 1000;             </t>
+  </si>
+  <si>
+    <t>* Upgrades in CBA reference 2027</t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/Documents/TYNDP%20documents/TYNDP2018/consultation/Main%20Report/TYNDP18%20Exec%20Report%20appendix.pdf , https://www.nordpoolgroup.com/globalassets/download-center/tso/max-ntc.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE4','SE3')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'SE4','SE3') + 1200;             </t>
+  </si>
+  <si>
+    <t>!! Difference between Nordpool spot NTC and TYNDP NTC 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE3','SE4')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'SE3','SE4') + 1200;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE3','SE2')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'SE3','SE2') + 500;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'SE2','SE3')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'SE2','SE3') + 500;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://www.nordpoolgroup.com/globalassets/download-center/tso/max-ntc.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO5','NO3')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'NO5','NO3') + 700;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO3','NO5')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'NO3','NO5') + 700;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO4','NO3')$(YVALUE(YYY) GE 2017) = XKFX(YYY,'NO4','NO3') + 200;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO3','NO4')$(YVALUE(YYY) GE 2018) = XKFX(YYY,'NO3','NO4') + 200;             </t>
+  </si>
+  <si>
+    <t>!! Uncertain NTC effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO5','NO2')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'NO5','NO2') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Vestre korridor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO2','NO5')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'NO2','NO5') + 1000;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO1','NO5')$(YVALUE(YYY) GE 2017) = XKFX(YYY,'NO1','NO5') + 300;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'LV','LT')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'LV','LT') + 266;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'LT','LV')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'LT','LV') + 516;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NL','DK1')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'NL','DK1') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Project name: COBRA cable VSC DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK1','NL')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'DK1','NL') + 700;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK1','DE4-N')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'DK1','DE4-N') + 740;             </t>
+  </si>
+  <si>
+    <t>!! Project name: DKW-DE, step 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-N','DK1')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'DE4-N','DK1') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NO2','DE4-N')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'NO2','DE4-N') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Nordlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-N','NO2')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'DE4-N','NO2') + 1400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/245 , https://tyndp.entsoe.eu/tyndp2018/projects/projects/113 , https://tyndp.entsoe.eu/Documents/TYNDP%20documents/TYNDP2018/consultation/Main%20Report/TYNDP18%20Exec%20Report%20appendix.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'NL','DE4-W')$(YVALUE(YYY) GE 2018) = XKFX(YYY,'NL','DE4-W') + 1150;             </t>
+  </si>
+  <si>
+    <t>!! Project name: Meeden Diele &amp; Niederrhein Doetinchem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-W','NL')$(YVALUE(YYY) GE 2018) = XKFX(YYY,'DE4-W','NL') + 350;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DK2','DE4-E')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'DK2','DE4-E') + 400;             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!! Project name: Kriegers Flak CGS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-E','DK2')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'DE4-E','DK2') + 400;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'UK','BE')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'UK','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: NEMO Link HVDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'BE','UK')$(YVALUE(YYY) GE 2019) = XKFX(YYY,'BE','UK') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Source: https://tyndp.entsoe.eu/tyndp2018/projects/projects/92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XKFX(YYY,'DE4-W','BE')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'DE4-W','BE') + 1000;             </t>
+  </si>
+  <si>
+    <t>!! Project name: ALEGrO 100 km HVDC</t>
+  </si>
+  <si>
+    <t>XKFX(YYY,'BE','DE4-W')$(YVALUE(YYY) GE 2020) = XKFX(YYY,'BE','DE4-W') + 1000;</t>
+  </si>
+  <si>
+    <t>* Upgrades before 2020</t>
+  </si>
+  <si>
+    <t>XKFX(YYY,IRRRE,IRRRI)$(YYY.VAL GT 2016) = XKFX('2016',IRRRE,IRRRI);</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>SE4</t>
+  </si>
+  <si>
+    <t>SE3</t>
+  </si>
+  <si>
+    <t>SE2</t>
+  </si>
+  <si>
+    <t>SE1</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>NO5</t>
+  </si>
+  <si>
+    <t>NO4</t>
+  </si>
+  <si>
+    <t>NO3</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>NO1</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>DK2</t>
+  </si>
+  <si>
+    <t>DK1</t>
+  </si>
+  <si>
+    <t>DE4-S</t>
+  </si>
+  <si>
+    <t>DE4-E</t>
+  </si>
+  <si>
+    <t>DE4-W</t>
+  </si>
+  <si>
+    <t>DE4-N</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>TABLE XKFX(YYY,IRRRE,IRRRI)  'Initial transmission capacity between regions'</t>
+  </si>
+  <si>
+    <t>* Germany separated in four regions according to the major bottlenecks (Frauke 6.2.18)</t>
+  </si>
+  <si>
+    <t>* Last update: 09.04.2019, Gustav</t>
+  </si>
+  <si>
+    <t>* Capacities beyond 2016 are based on ENTSO-E TYNDP 2018</t>
+  </si>
+  <si>
+    <t>* Capacities for 2016 are based on Nordpool NTC map, Nordic ETP and ENTSO-e TYNDP 2018.</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* data sources nordic countries: http://nordpoolspot.com/globalassets/download-center/tso/max_ntc_-valid-from-3-july-2014.pdf </t>
+  </si>
+  <si>
+    <t>* the transmisison line, but at most (XCAPINIT*XLOSS) MW may be extracted.</t>
+  </si>
+  <si>
+    <t>* Thus, if there is a loss, a maximum of XCAPINIT MW may be sent into</t>
+  </si>
+  <si>
+    <t>* disregarding an eventual loss (see the table XLOSS).</t>
+  </si>
+  <si>
+    <t>* The electrical transmission capacity is the capacity</t>
+  </si>
+  <si>
+    <t>* Units: MW.</t>
+  </si>
+  <si>
+    <t>* between pairs of regions.</t>
+  </si>
+  <si>
+    <t>* PARAMETER XKFX contains the intital electrical transmission capacities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,8 +817,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +883,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCACACA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,12 +986,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +1066,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,25 +1385,7560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDBB1B2-3164-4C1E-9BA7-1A1B33D3D5D5}">
+  <sheetPr codeName="Sheet49">
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AV177"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="5"/>
+    <col min="3" max="24" width="6" style="5" customWidth="1"/>
+    <col min="25" max="33" width="5.26953125" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="3.81640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J18" t="s">
+        <v>230</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD18" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF18" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="M19" s="5">
+        <v>1800</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>2400</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="25">
+        <v>8634</v>
+      </c>
+      <c r="G20" s="25">
+        <v>3010</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="19">
+        <v>1500</v>
+      </c>
+      <c r="J20" s="19"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19">
+        <v>600</v>
+      </c>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25">
+        <v>8634</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="25">
+        <v>6020</v>
+      </c>
+      <c r="H21" s="25">
+        <v>14416</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22">
+        <v>3900</v>
+      </c>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="25">
+        <v>3010</v>
+      </c>
+      <c r="F22" s="25">
+        <v>6020</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="25">
+        <v>3010</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19">
+        <v>600</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="22">
+        <v>500</v>
+      </c>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15">
+        <v>750</v>
+      </c>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25">
+        <v>14416</v>
+      </c>
+      <c r="G23" s="25">
+        <v>3010</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22">
+        <v>2300</v>
+      </c>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15">
+        <v>2700</v>
+      </c>
+      <c r="AD23" s="15">
+        <v>5000</v>
+      </c>
+      <c r="AE23" s="15">
+        <v>750</v>
+      </c>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="19">
+        <v>1780</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="24">
+        <v>590</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19">
+        <v>1632</v>
+      </c>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19">
+        <v>740</v>
+      </c>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19">
+        <v>585</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="24">
+        <v>600</v>
+      </c>
+      <c r="J25" s="16"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19">
+        <v>1700</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="5">
+        <v>1016</v>
+      </c>
+      <c r="P26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="5">
+        <v>1016</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="X27" s="18">
+        <v>1100</v>
+      </c>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18">
+        <v>1200</v>
+      </c>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3300</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22">
+        <v>1800</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="5">
+        <v>2000</v>
+      </c>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="15">
+        <v>4400</v>
+      </c>
+      <c r="AC28" s="15">
+        <v>3150</v>
+      </c>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15">
+        <v>2600</v>
+      </c>
+      <c r="AG28" s="15"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="M29" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="Q29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="5">
+        <v>684</v>
+      </c>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="5">
+        <v>500</v>
+      </c>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18">
+        <v>700</v>
+      </c>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="5">
+        <v>879</v>
+      </c>
+      <c r="O31" s="5">
+        <v>1234</v>
+      </c>
+      <c r="P31" s="16"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22">
+        <v>3100</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="N32" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20">
+        <v>700</v>
+      </c>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="23">
+        <v>2200</v>
+      </c>
+      <c r="T33" s="23">
+        <v>500</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23">
+        <v>300</v>
+      </c>
+      <c r="W33" s="20"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19">
+        <v>2145</v>
+      </c>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
+        <v>1632</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20">
+        <v>700</v>
+      </c>
+      <c r="R34" s="23">
+        <v>3500</v>
+      </c>
+      <c r="S34" s="16"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23">
+        <v>500</v>
+      </c>
+      <c r="W34" s="20"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="23">
+        <v>500</v>
+      </c>
+      <c r="S35" s="23"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="23">
+        <v>200</v>
+      </c>
+      <c r="V35" s="23">
+        <v>200</v>
+      </c>
+      <c r="W35" s="20"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19">
+        <v>600</v>
+      </c>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23">
+        <v>1000</v>
+      </c>
+      <c r="U36" s="16"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="19">
+        <v>700</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>250</v>
+      </c>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="23">
+        <v>3900</v>
+      </c>
+      <c r="S37" s="23">
+        <v>600</v>
+      </c>
+      <c r="T37" s="23">
+        <v>200</v>
+      </c>
+      <c r="U37" s="23"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A38" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22">
+        <v>2500</v>
+      </c>
+      <c r="H38" s="22"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="O38" s="5">
+        <v>500</v>
+      </c>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="16"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18">
+        <v>600</v>
+      </c>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15">
+        <v>800</v>
+      </c>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18">
+        <v>1500</v>
+      </c>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19">
+        <v>600</v>
+      </c>
+      <c r="V39" s="19"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="17">
+        <v>3300</v>
+      </c>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19">
+        <v>1000</v>
+      </c>
+      <c r="U40" s="19">
+        <v>300</v>
+      </c>
+      <c r="V40" s="19"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="17">
+        <v>3300</v>
+      </c>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="17">
+        <v>7300</v>
+      </c>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A41" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19">
+        <v>680</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18">
+        <v>1200</v>
+      </c>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19">
+        <v>2095</v>
+      </c>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17">
+        <v>7300</v>
+      </c>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="17">
+        <v>5300</v>
+      </c>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19">
+        <v>600</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19">
+        <v>1300</v>
+      </c>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18">
+        <v>700</v>
+      </c>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="18">
+        <v>600</v>
+      </c>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17">
+        <v>2000</v>
+      </c>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15">
+        <v>2310</v>
+      </c>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="15">
+        <v>1910</v>
+      </c>
+      <c r="AD43" s="15">
+        <v>235</v>
+      </c>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A44" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15">
+        <v>4600</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15">
+        <v>1300</v>
+      </c>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15">
+        <v>4240</v>
+      </c>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="15">
+        <v>1200</v>
+      </c>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15">
+        <v>5000</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15">
+        <v>405</v>
+      </c>
+      <c r="AC45" s="15">
+        <v>1200</v>
+      </c>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="15">
+        <v>900</v>
+      </c>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A46" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15">
+        <v>1050</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1050</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15">
+        <v>600</v>
+      </c>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15">
+        <v>800</v>
+      </c>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15">
+        <v>2700</v>
+      </c>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="14"/>
+      <c r="AG47" s="15">
+        <v>3600</v>
+      </c>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A48" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15">
+        <v>3000</v>
+      </c>
+      <c r="AG48" s="14"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48"/>
+      <c r="AV48"/>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="L49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="L50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="L51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="L52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="L53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53"/>
+      <c r="AV53"/>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="L54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54"/>
+      <c r="AV54"/>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="I55" s="10"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+      <c r="AS55"/>
+      <c r="AT55"/>
+      <c r="AU55"/>
+      <c r="AV55"/>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="10"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="10"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="10"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="10"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="10"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="10"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="10"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="10"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="10"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="10"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="10"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="10"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="10"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="10"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="10"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="10"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="10"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="10"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="10"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="10"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="10"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="10"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="10"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="10"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="10"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="10"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+      <c r="AG81"/>
+      <c r="AH81" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="10"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+      <c r="AG82"/>
+      <c r="AH82" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A83" s="12"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A84" s="12"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="10"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="10"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+      <c r="AH86" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="10"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+      <c r="AH87" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="10"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+      <c r="AH88" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="10"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+      <c r="AH89" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="10"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+      <c r="AG90"/>
+      <c r="AH90" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="10"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+      <c r="AG91"/>
+      <c r="AH91" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="10"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+      <c r="AH92" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="10"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+      <c r="AH93" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="10"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+      <c r="AG94"/>
+      <c r="AH94" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="10"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+      <c r="AG95"/>
+      <c r="AH95" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="10"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+      <c r="AG96"/>
+      <c r="AH96" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="10"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+      <c r="AG97"/>
+      <c r="AH97" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="10"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+      <c r="AG98"/>
+      <c r="AH98" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="10"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+      <c r="AG99"/>
+      <c r="AH99" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="10"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+      <c r="AG100"/>
+      <c r="AH100" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="10"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+      <c r="AF101"/>
+      <c r="AG101"/>
+      <c r="AH101" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="10"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="10"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="10"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="10"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="10"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+      <c r="AG106"/>
+      <c r="AH106" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="10"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="10"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="10"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="10"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="10"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="10"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="10"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="10"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="10"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="10"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+      <c r="AF117"/>
+      <c r="AG117"/>
+      <c r="AH117" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="10"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+      <c r="AF118"/>
+      <c r="AG118"/>
+      <c r="AH118" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="10"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+      <c r="AF119"/>
+      <c r="AG119"/>
+      <c r="AH119" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="10"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+      <c r="AF120"/>
+      <c r="AG120"/>
+      <c r="AH120" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="10"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+      <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A122" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="10"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
+      <c r="AD122"/>
+      <c r="AE122"/>
+      <c r="AF122"/>
+      <c r="AG122"/>
+      <c r="AH122" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="10"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+      <c r="AB123"/>
+      <c r="AC123"/>
+      <c r="AD123"/>
+      <c r="AE123"/>
+      <c r="AF123"/>
+      <c r="AG123"/>
+      <c r="AH123" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="10"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+      <c r="AC124"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+      <c r="AF124"/>
+      <c r="AG124"/>
+      <c r="AH124" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="10"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+      <c r="AC125"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+      <c r="AF125"/>
+      <c r="AG125"/>
+      <c r="AH125" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="10"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+      <c r="AC126"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+      <c r="AF126"/>
+      <c r="AG126"/>
+      <c r="AH126" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="10"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+      <c r="AC127"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+      <c r="AF127"/>
+      <c r="AG127"/>
+      <c r="AH127" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="10"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+      <c r="AF128"/>
+      <c r="AG128"/>
+      <c r="AH128" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A129" s="12"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="10"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+      <c r="AC129"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+      <c r="AF129"/>
+      <c r="AG129"/>
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="10"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+      <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AU130" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV130" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A131" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="10"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+      <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AU131"/>
+      <c r="AV131"/>
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A132" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="10"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+      <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU132" s="5">
+        <v>600</v>
+      </c>
+      <c r="AV132" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A133" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="10"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+      <c r="AC133"/>
+      <c r="AD133"/>
+      <c r="AE133"/>
+      <c r="AF133"/>
+      <c r="AG133"/>
+      <c r="AH133" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ133" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A134" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="10"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+      <c r="AC134"/>
+      <c r="AD134"/>
+      <c r="AE134"/>
+      <c r="AF134"/>
+      <c r="AG134"/>
+      <c r="AH134" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU134" s="5">
+        <v>100</v>
+      </c>
+      <c r="AV134" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A135" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="10"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+      <c r="AF135"/>
+      <c r="AG135"/>
+      <c r="AH135" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ135" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A136" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="10"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+      <c r="AF136"/>
+      <c r="AG136"/>
+      <c r="AH136" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU136" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AV136" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A137" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="10"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+      <c r="AC137"/>
+      <c r="AD137"/>
+      <c r="AE137"/>
+      <c r="AF137"/>
+      <c r="AG137"/>
+      <c r="AH137" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ137" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A138" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="10"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+      <c r="AB138"/>
+      <c r="AC138"/>
+      <c r="AD138"/>
+      <c r="AE138"/>
+      <c r="AF138"/>
+      <c r="AG138"/>
+      <c r="AH138" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU138" s="5">
+        <v>50</v>
+      </c>
+      <c r="AV138" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="10"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+      <c r="AC139"/>
+      <c r="AD139"/>
+      <c r="AE139"/>
+      <c r="AF139"/>
+      <c r="AG139"/>
+      <c r="AH139" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ139" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A140" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="10"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+      <c r="AC140"/>
+      <c r="AD140"/>
+      <c r="AE140"/>
+      <c r="AF140"/>
+      <c r="AG140"/>
+      <c r="AH140" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU140" s="5">
+        <v>49</v>
+      </c>
+      <c r="AV140" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A141" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="10"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+      <c r="AC141"/>
+      <c r="AD141"/>
+      <c r="AE141"/>
+      <c r="AF141"/>
+      <c r="AG141"/>
+      <c r="AH141" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ141" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A142" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="10"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+      <c r="AE142"/>
+      <c r="AF142"/>
+      <c r="AG142"/>
+      <c r="AH142" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU142" s="5">
+        <v>660</v>
+      </c>
+      <c r="AV142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A143" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="10"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143"/>
+      <c r="AA143"/>
+      <c r="AB143"/>
+      <c r="AC143"/>
+      <c r="AD143"/>
+      <c r="AE143"/>
+      <c r="AF143"/>
+      <c r="AG143"/>
+      <c r="AH143" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ143" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A144" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="10"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+      <c r="AC144"/>
+      <c r="AD144"/>
+      <c r="AE144"/>
+      <c r="AF144"/>
+      <c r="AG144"/>
+      <c r="AH144" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU144" s="5">
+        <v>460</v>
+      </c>
+      <c r="AV144" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A145" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="10"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+      <c r="AC145"/>
+      <c r="AD145"/>
+      <c r="AE145"/>
+      <c r="AF145"/>
+      <c r="AG145"/>
+      <c r="AH145" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ145" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A146" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="10"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+      <c r="AB146"/>
+      <c r="AC146"/>
+      <c r="AD146"/>
+      <c r="AE146"/>
+      <c r="AF146"/>
+      <c r="AG146"/>
+      <c r="AH146" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU146" s="5">
+        <v>420</v>
+      </c>
+      <c r="AV146" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A147" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="10"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+      <c r="AB147"/>
+      <c r="AC147"/>
+      <c r="AD147"/>
+      <c r="AE147"/>
+      <c r="AF147"/>
+      <c r="AG147"/>
+      <c r="AH147" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ147" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A148" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="10"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+      <c r="AC148"/>
+      <c r="AD148"/>
+      <c r="AE148"/>
+      <c r="AF148"/>
+      <c r="AG148"/>
+      <c r="AH148" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU148" s="5">
+        <v>655</v>
+      </c>
+      <c r="AV148" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A149" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="10"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+      <c r="AB149"/>
+      <c r="AC149"/>
+      <c r="AD149"/>
+      <c r="AE149"/>
+      <c r="AF149"/>
+      <c r="AG149"/>
+      <c r="AH149" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ149" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A150" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="10"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+      <c r="AB150"/>
+      <c r="AC150"/>
+      <c r="AD150"/>
+      <c r="AE150"/>
+      <c r="AF150"/>
+      <c r="AG150"/>
+      <c r="AH150" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU150" s="5">
+        <v>380</v>
+      </c>
+      <c r="AV150" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A151" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="10"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+      <c r="AC151"/>
+      <c r="AD151"/>
+      <c r="AE151"/>
+      <c r="AF151"/>
+      <c r="AG151"/>
+      <c r="AH151" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ151" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A152" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="10"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AD152"/>
+      <c r="AE152"/>
+      <c r="AF152"/>
+      <c r="AG152"/>
+      <c r="AH152" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU152" s="5">
+        <v>1400</v>
+      </c>
+      <c r="AV152" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A153" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="10"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+      <c r="AB153"/>
+      <c r="AC153"/>
+      <c r="AD153"/>
+      <c r="AE153"/>
+      <c r="AF153"/>
+      <c r="AG153"/>
+      <c r="AH153" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ153" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A154" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="10"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+      <c r="AB154"/>
+      <c r="AC154"/>
+      <c r="AD154"/>
+      <c r="AE154"/>
+      <c r="AF154"/>
+      <c r="AG154"/>
+      <c r="AH154" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU154" s="5">
+        <v>2200</v>
+      </c>
+      <c r="AV154" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A155" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="10"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+      <c r="AB155"/>
+      <c r="AC155"/>
+      <c r="AD155"/>
+      <c r="AE155"/>
+      <c r="AF155"/>
+      <c r="AG155"/>
+      <c r="AH155" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ155" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A156" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="10"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+      <c r="AB156"/>
+      <c r="AC156"/>
+      <c r="AD156"/>
+      <c r="AE156"/>
+      <c r="AF156"/>
+      <c r="AG156"/>
+      <c r="AH156" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU156" s="5">
+        <v>850</v>
+      </c>
+      <c r="AV156" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A157" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="10"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+      <c r="AC157"/>
+      <c r="AD157"/>
+      <c r="AE157"/>
+      <c r="AF157"/>
+      <c r="AG157"/>
+      <c r="AH157" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ157" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A158" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="10"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+      <c r="Y158"/>
+      <c r="Z158"/>
+      <c r="AA158"/>
+      <c r="AB158"/>
+      <c r="AC158"/>
+      <c r="AD158"/>
+      <c r="AE158"/>
+      <c r="AF158"/>
+      <c r="AG158"/>
+      <c r="AH158" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU158" s="5">
+        <v>600</v>
+      </c>
+      <c r="AV158" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A159" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+      <c r="Y159"/>
+      <c r="Z159"/>
+      <c r="AA159"/>
+      <c r="AB159"/>
+      <c r="AC159"/>
+      <c r="AD159"/>
+      <c r="AE159"/>
+      <c r="AF159"/>
+      <c r="AG159"/>
+      <c r="AH159" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU159"/>
+      <c r="AV159"/>
+    </row>
+    <row r="160" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A160" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10"/>
+      <c r="Y160"/>
+      <c r="Z160"/>
+      <c r="AA160"/>
+      <c r="AB160"/>
+      <c r="AC160"/>
+      <c r="AD160"/>
+      <c r="AE160"/>
+      <c r="AF160"/>
+      <c r="AG160"/>
+      <c r="AH160"/>
+      <c r="AI160"/>
+      <c r="AJ160"/>
+      <c r="AK160"/>
+      <c r="AL160"/>
+      <c r="AM160"/>
+      <c r="AN160"/>
+      <c r="AO160"/>
+      <c r="AP160"/>
+      <c r="AQ160"/>
+      <c r="AR160"/>
+      <c r="AS160"/>
+      <c r="AT160"/>
+      <c r="AU160"/>
+      <c r="AV160"/>
+    </row>
+    <row r="162" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="7"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="7"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="7"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="7"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="7"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="9"/>
+    </row>
+    <row r="167" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="7"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="9"/>
+    </row>
+    <row r="168" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="7"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="9"/>
+    </row>
+    <row r="169" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="7"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="9"/>
+    </row>
+    <row r="170" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="7"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="7"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+    </row>
+    <row r="173" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="9"/>
+    </row>
+    <row r="176" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="7"/>
+    </row>
+    <row r="177" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="8"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B219" r:id="rId1" display="https://www.energinet.dk/SiteCollectionDocuments/Danske%20dokumenter/El/Redeg%C3%B8relse%20for%20elforsyningssikkerhed%202015.pdf" xr:uid="{22B4812A-BA6C-4485-B3AD-6C3110AD72B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -512,8 +8951,20 @@
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -523,8 +8974,20 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -534,8 +8997,17 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -545,13 +9017,62 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:G8"/>
@@ -560,14 +9081,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -584,22 +9105,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -610,52 +9131,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,15 +9361,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -915,10 +9398,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1391,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:AV177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9132,12 +9132,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9360,6 +9354,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9370,15 +9370,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9397,6 +9388,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
   <ds:schemaRefs>

--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59678814-3145-4C45-9C70-8383E4657DCA}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA72332C-3F2B-479D-BCEE-BD35404B19CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="35 (2)" sheetId="6" r:id="rId1"/>
@@ -1391,7 +1391,7 @@
   </sheetPr>
   <dimension ref="A1:AV177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -8924,8 +8924,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:L10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8991,9 +8991,7 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -9011,9 +9009,6 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -9034,9 +9029,6 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -9047,9 +9039,6 @@
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9355,18 +9344,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9389,18 +9378,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA72332C-3F2B-479D-BCEE-BD35404B19CA}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CD3F59-CE1E-4B62-8175-6ADB5875898A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="35 (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="BI" sheetId="5" r:id="rId2"/>
+    <sheet name="BI" sheetId="5" r:id="rId1"/>
+    <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
     <sheet name="Uni" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1385,6 +1385,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C3:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDBB1B2-3164-4C1E-9BA7-1A1B33D3D5D5}">
   <sheetPr codeName="Sheet49">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -8919,148 +9061,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:L10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
@@ -9121,6 +9121,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9343,22 +9358,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9375,21 +9392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CD3F59-CE1E-4B62-8175-6ADB5875898A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C591FA-70CC-4F02-9365-17BAEE2830DD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
     <sheet name="Uni" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -882,12 +882,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACACA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -958,28 +952,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -991,7 +976,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1013,8 +997,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1042,12 +1029,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1390,7 +1375,7 @@
   <dimension ref="C3:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1433,18 +1418,8 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="K5" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1431,10 @@
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26"/>
       <c r="F6">
         <v>1</v>
       </c>
@@ -1474,6 +1452,9 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1494,6 +1475,9 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1504,6 +1488,9 @@
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1539,35 +1526,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26" style="5" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" style="5"/>
-    <col min="3" max="24" width="6" style="5" customWidth="1"/>
-    <col min="25" max="33" width="5.26953125" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="3.81640625" style="5"/>
+    <col min="1" max="1" width="26" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" style="4"/>
+    <col min="3" max="24" width="6" style="4" customWidth="1"/>
+    <col min="25" max="33" width="5.26953125" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="3.81640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
@@ -1594,27 +1581,27 @@
       <c r="AV1"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -1641,27 +1628,27 @@
       <c r="AV2"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -1688,24 +1675,24 @@
       <c r="AV3"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -1732,27 +1719,27 @@
       <c r="AV4"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
@@ -1779,27 +1766,27 @@
       <c r="AV5"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
@@ -1826,27 +1813,27 @@
       <c r="AV6"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
@@ -1873,27 +1860,27 @@
       <c r="AV7"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
@@ -1920,27 +1907,27 @@
       <c r="AV8"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
       <c r="Y9"/>
       <c r="Z9"/>
       <c r="AA9"/>
@@ -1967,27 +1954,27 @@
       <c r="AV9"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
@@ -2014,27 +2001,27 @@
       <c r="AV10"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
       <c r="Y11"/>
       <c r="Z11"/>
       <c r="AA11"/>
@@ -2061,27 +2048,27 @@
       <c r="AV11"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
@@ -2111,27 +2098,27 @@
       <c r="AV12"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
       <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
@@ -2161,27 +2148,27 @@
       <c r="AV13"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
@@ -2211,25 +2198,25 @@
       <c r="AV14"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="26"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
@@ -2259,24 +2246,24 @@
       <c r="AV15"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
       <c r="Y16"/>
       <c r="Z16"/>
       <c r="AA16"/>
@@ -2303,27 +2290,27 @@
       <c r="AV16"/>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
@@ -2355,96 +2342,96 @@
       <c r="AV17"/>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>231</v>
       </c>
       <c r="J18" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="V18" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="W18" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="Y18" s="5" t="s">
+      <c r="Y18" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Z18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AA18" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AB18" s="15" t="s">
+      <c r="AB18" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="AC18" s="15" t="s">
+      <c r="AC18" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="AD18" s="15" t="s">
+      <c r="AD18" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="AE18" s="15" t="s">
+      <c r="AE18" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="AF18" s="15" t="s">
+      <c r="AF18" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="AG18" s="15" t="s">
+      <c r="AG18" s="14" t="s">
         <v>206</v>
       </c>
       <c r="AH18"/>
@@ -2464,43 +2451,43 @@
       <c r="AV18"/>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>2016</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="M19" s="5">
+      <c r="D19" s="15"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="M19" s="4">
         <v>1800</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>2400</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
       <c r="AH19"/>
       <c r="AI19"/>
       <c r="AJ19"/>
@@ -2518,53 +2505,53 @@
       <c r="AV19"/>
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>2016</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="25">
+      <c r="D20" s="21"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="24">
         <v>8634</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <v>3010</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="19">
+      <c r="H20" s="24"/>
+      <c r="I20" s="18">
         <v>1500</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19">
+      <c r="J20" s="18"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18">
         <v>600</v>
       </c>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
       <c r="AH20"/>
       <c r="AI20"/>
       <c r="AJ20"/>
@@ -2582,53 +2569,53 @@
       <c r="AV20"/>
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>2016</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="25">
+      <c r="D21" s="21"/>
+      <c r="E21" s="24">
         <v>8634</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="25">
+      <c r="F21" s="15"/>
+      <c r="G21" s="24">
         <v>6020</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="24">
         <v>14416</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22">
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21">
         <v>3900</v>
       </c>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="15"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="15"/>
-      <c r="AF21" s="15"/>
-      <c r="AG21" s="15"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
       <c r="AH21"/>
       <c r="AI21"/>
       <c r="AJ21"/>
@@ -2646,57 +2633,57 @@
       <c r="AV21"/>
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>2016</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="25">
+      <c r="D22" s="21"/>
+      <c r="E22" s="24">
         <v>3010</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>6020</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="25">
+      <c r="G22" s="15"/>
+      <c r="H22" s="24">
         <v>3010</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19">
+      <c r="I22" s="18"/>
+      <c r="J22" s="18">
         <v>600</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="22">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="21">
         <v>500</v>
       </c>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15">
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14">
         <v>750</v>
       </c>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
       <c r="AH22"/>
       <c r="AI22"/>
       <c r="AJ22"/>
@@ -2714,57 +2701,57 @@
       <c r="AV22"/>
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>2016</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25">
+      <c r="D23" s="21"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24">
         <v>14416</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>3010</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22">
+      <c r="H23" s="15"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21">
         <v>2300</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="15">
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14">
         <v>2700</v>
       </c>
-      <c r="AD23" s="15">
+      <c r="AD23" s="14">
         <v>5000</v>
       </c>
-      <c r="AE23" s="15">
+      <c r="AE23" s="14">
         <v>750</v>
       </c>
-      <c r="AF23" s="15"/>
-      <c r="AG23" s="15"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
       <c r="AH23"/>
       <c r="AI23"/>
       <c r="AJ23"/>
@@ -2782,53 +2769,53 @@
       <c r="AV23"/>
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2016</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="19">
+      <c r="D24" s="20"/>
+      <c r="E24" s="18">
         <v>1780</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="24">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="23">
         <v>590</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19">
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18">
         <v>1632</v>
       </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19">
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18">
         <v>740</v>
       </c>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
       <c r="AH24"/>
       <c r="AI24"/>
       <c r="AJ24"/>
@@ -2846,51 +2833,51 @@
       <c r="AV24"/>
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>2016</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19">
+      <c r="D25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
         <v>585</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="24">
+      <c r="H25" s="18"/>
+      <c r="I25" s="23">
         <v>600</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19">
+      <c r="J25" s="15"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18">
         <v>1700</v>
       </c>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
       <c r="AH25"/>
       <c r="AI25"/>
       <c r="AJ25"/>
@@ -2908,43 +2895,43 @@
       <c r="AV25"/>
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>2016</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="5">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="4">
         <v>1016</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <v>1000</v>
       </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
       <c r="AH26"/>
       <c r="AI26"/>
       <c r="AJ26"/>
@@ -2962,44 +2949,44 @@
       <c r="AV26"/>
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>2016</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="5">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="4">
         <v>1016</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="X27" s="18">
+      <c r="L27" s="15"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="X27" s="17">
         <v>1100</v>
       </c>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18">
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17">
         <v>1200</v>
       </c>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
       <c r="AH27"/>
       <c r="AI27"/>
       <c r="AJ27"/>
@@ -3017,51 +3004,51 @@
       <c r="AV27"/>
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>2016</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>3300</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21">
         <v>1800</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="5">
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="4">
         <v>2000</v>
       </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="15">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="14">
         <v>4400</v>
       </c>
-      <c r="AC28" s="15">
+      <c r="AC28" s="14">
         <v>3150</v>
       </c>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15">
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14">
         <v>2600</v>
       </c>
-      <c r="AG28" s="15"/>
+      <c r="AG28" s="14"/>
       <c r="AH28"/>
       <c r="AI28"/>
       <c r="AJ28"/>
@@ -3079,43 +3066,43 @@
       <c r="AV28"/>
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>2016</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="M29" s="5">
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="M29" s="4">
         <v>2000</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="Q29" s="5">
+      <c r="N29" s="15"/>
+      <c r="Q29" s="4">
         <v>1000</v>
       </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="14"/>
       <c r="AH29"/>
       <c r="AI29"/>
       <c r="AJ29"/>
@@ -3133,45 +3120,45 @@
       <c r="AV29"/>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>2016</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="5">
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="4">
         <v>684</v>
       </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="5">
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="4">
         <v>500</v>
       </c>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18">
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17">
         <v>700</v>
       </c>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="14"/>
       <c r="AH30"/>
       <c r="AI30"/>
       <c r="AJ30"/>
@@ -3189,43 +3176,43 @@
       <c r="AV30"/>
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>2016</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="5">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="4">
         <v>879</v>
       </c>
-      <c r="O31" s="5">
+      <c r="O31" s="4">
         <v>1234</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
       <c r="AH31"/>
       <c r="AI31"/>
       <c r="AJ31"/>
@@ -3243,47 +3230,47 @@
       <c r="AV31"/>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>2016</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>1400</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21">
         <v>3100</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="N32" s="5">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="N32" s="4">
         <v>1000</v>
       </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20">
+      <c r="Q32" s="15"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19">
         <v>700</v>
       </c>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="14"/>
       <c r="AH32"/>
       <c r="AI32"/>
       <c r="AJ32"/>
@@ -3301,53 +3288,53 @@
       <c r="AV32"/>
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>2016</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="23">
+      <c r="D33" s="19"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="22">
         <v>2200</v>
       </c>
-      <c r="T33" s="23">
+      <c r="T33" s="22">
         <v>500</v>
       </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23">
+      <c r="U33" s="22"/>
+      <c r="V33" s="22">
         <v>300</v>
       </c>
-      <c r="W33" s="20"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19">
+      <c r="W33" s="19"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18">
         <v>2145</v>
       </c>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="14"/>
+      <c r="AG33" s="14"/>
       <c r="AH33"/>
       <c r="AI33"/>
       <c r="AJ33"/>
@@ -3365,53 +3352,53 @@
       <c r="AV33"/>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>2016</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="D34" s="19"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18">
         <v>1632</v>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20">
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19">
         <v>700</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="22">
         <v>3500</v>
       </c>
-      <c r="S34" s="16"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23">
+      <c r="S34" s="15"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22">
         <v>500</v>
       </c>
-      <c r="W34" s="20"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
-      <c r="AG34" s="15"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="14"/>
+      <c r="AG34" s="14"/>
       <c r="AH34"/>
       <c r="AI34"/>
       <c r="AJ34"/>
@@ -3429,53 +3416,53 @@
       <c r="AV34"/>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>2016</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="23">
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="22">
         <v>500</v>
       </c>
-      <c r="S35" s="23"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="23">
+      <c r="S35" s="22"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="22">
         <v>200</v>
       </c>
-      <c r="V35" s="23">
+      <c r="V35" s="22">
         <v>200</v>
       </c>
-      <c r="W35" s="20"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19">
+      <c r="W35" s="19"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18">
         <v>600</v>
       </c>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="14"/>
+      <c r="AG35" s="14"/>
       <c r="AH35"/>
       <c r="AI35"/>
       <c r="AJ35"/>
@@ -3493,51 +3480,51 @@
       <c r="AV35"/>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>2016</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23">
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22">
         <v>1000</v>
       </c>
-      <c r="U36" s="16"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="19">
+      <c r="U36" s="15"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="18">
         <v>700</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="Y36" s="18">
         <v>250</v>
       </c>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
-      <c r="AG36" s="15"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="14"/>
+      <c r="AG36" s="14"/>
       <c r="AH36"/>
       <c r="AI36"/>
       <c r="AJ36"/>
@@ -3555,51 +3542,51 @@
       <c r="AV36"/>
     </row>
     <row r="37" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>2016</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="23">
+      <c r="D37" s="19"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="22">
         <v>3900</v>
       </c>
-      <c r="S37" s="23">
+      <c r="S37" s="22">
         <v>600</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T37" s="22">
         <v>200</v>
       </c>
-      <c r="U37" s="23"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="15"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
       <c r="AH37"/>
       <c r="AI37"/>
       <c r="AJ37"/>
@@ -3617,46 +3604,46 @@
       <c r="AV37"/>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>2016</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21">
         <v>2500</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="O38" s="5">
+      <c r="H38" s="21"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="O38" s="4">
         <v>500</v>
       </c>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18">
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17">
         <v>600</v>
       </c>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15">
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14">
         <v>800</v>
       </c>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
       <c r="AH38"/>
       <c r="AI38"/>
       <c r="AJ38"/>
@@ -3674,51 +3661,51 @@
       <c r="AV38"/>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>2016</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18">
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17">
         <v>1500</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19">
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18">
         <v>600</v>
       </c>
-      <c r="V39" s="19"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="16"/>
-      <c r="Y39" s="17">
+      <c r="V39" s="18"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16">
         <v>3300</v>
       </c>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+      <c r="AE39" s="14"/>
+      <c r="AF39" s="14"/>
+      <c r="AG39" s="14"/>
       <c r="AH39"/>
       <c r="AI39"/>
       <c r="AJ39"/>
@@ -3736,53 +3723,53 @@
       <c r="AV39"/>
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>2016</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19">
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18">
         <v>1000</v>
       </c>
-      <c r="U40" s="19">
+      <c r="U40" s="18">
         <v>300</v>
       </c>
-      <c r="V40" s="19"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="17">
+      <c r="V40" s="18"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="16">
         <v>3300</v>
       </c>
-      <c r="Y40" s="16"/>
-      <c r="Z40" s="17">
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="16">
         <v>7300</v>
       </c>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
       <c r="AH40"/>
       <c r="AI40"/>
       <c r="AJ40"/>
@@ -3800,55 +3787,55 @@
       <c r="AV40"/>
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>2016</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19">
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18">
         <v>680</v>
       </c>
-      <c r="J41" s="19"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18">
+      <c r="J41" s="18"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17">
         <v>1200</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="19">
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18">
         <v>2095</v>
       </c>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17">
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16">
         <v>7300</v>
       </c>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="17">
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="16">
         <v>5300</v>
       </c>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
       <c r="AH41"/>
       <c r="AI41"/>
       <c r="AJ41"/>
@@ -3866,55 +3853,55 @@
       <c r="AV41"/>
     </row>
     <row r="42" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>2016</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19">
+      <c r="D42" s="17"/>
+      <c r="E42" s="18">
         <v>600</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18">
         <v>1300</v>
       </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18">
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17">
         <v>700</v>
       </c>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="18">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="17">
         <v>600</v>
       </c>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17">
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16">
         <v>2000</v>
       </c>
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
       <c r="AH42"/>
       <c r="AI42"/>
       <c r="AJ42"/>
@@ -3932,51 +3919,51 @@
       <c r="AV42"/>
     </row>
     <row r="43" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>2016</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14">
         <v>2310</v>
       </c>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="15">
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="14">
         <v>1910</v>
       </c>
-      <c r="AD43" s="15">
+      <c r="AD43" s="14">
         <v>235</v>
       </c>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
       <c r="AH43"/>
       <c r="AI43"/>
       <c r="AJ43"/>
@@ -3994,53 +3981,53 @@
       <c r="AV43"/>
     </row>
     <row r="44" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>2016</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15">
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14">
         <v>4600</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15">
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14">
         <v>1300</v>
       </c>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15">
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14">
         <v>4240</v>
       </c>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="15">
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="14">
         <v>1200</v>
       </c>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="15"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
       <c r="AH44"/>
       <c r="AI44"/>
       <c r="AJ44"/>
@@ -4058,53 +4045,53 @@
       <c r="AV44"/>
     </row>
     <row r="45" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>2016</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14">
         <v>5000</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15">
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14">
         <v>405</v>
       </c>
-      <c r="AC45" s="15">
+      <c r="AC45" s="14">
         <v>1200</v>
       </c>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="15">
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="14">
         <v>900</v>
       </c>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
       <c r="AH45"/>
       <c r="AI45"/>
       <c r="AJ45"/>
@@ -4122,53 +4109,53 @@
       <c r="AV45"/>
     </row>
     <row r="46" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>2016</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14">
         <v>1050</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="14">
         <v>1050</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15">
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14">
         <v>600</v>
       </c>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15">
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="14">
         <v>800</v>
       </c>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="15"/>
+      <c r="AE46" s="13"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
       <c r="AH46"/>
       <c r="AI46"/>
       <c r="AJ46"/>
@@ -4186,47 +4173,47 @@
       <c r="AV46"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>2016</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14">
         <v>2700</v>
       </c>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
-      <c r="AA47" s="15"/>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="14"/>
-      <c r="AG47" s="15">
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="14"/>
+      <c r="AF47" s="13"/>
+      <c r="AG47" s="14">
         <v>3600</v>
       </c>
       <c r="AH47"/>
@@ -4246,47 +4233,47 @@
       <c r="AV47"/>
     </row>
     <row r="48" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>2016</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15">
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
+      <c r="AF48" s="14">
         <v>3000</v>
       </c>
-      <c r="AG48" s="14"/>
+      <c r="AG48" s="13"/>
       <c r="AH48"/>
       <c r="AI48"/>
       <c r="AJ48"/>
@@ -4304,17 +4291,17 @@
       <c r="AV48"/>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="L49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="X49" s="13"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="L49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="X49" s="12"/>
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AA49"/>
@@ -4341,17 +4328,17 @@
       <c r="AV49"/>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="L50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="X50" s="13"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="L50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="X50" s="12"/>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
@@ -4378,14 +4365,14 @@
       <c r="AV50"/>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="L51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="X51" s="13"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="L51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="X51" s="12"/>
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
@@ -4412,14 +4399,14 @@
       <c r="AV51"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="L52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="X52" s="13"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="L52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="X52" s="12"/>
       <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52"/>
@@ -4446,14 +4433,14 @@
       <c r="AV52"/>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="L53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="X53" s="13"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="L53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="X53" s="12"/>
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
@@ -4480,14 +4467,14 @@
       <c r="AV53"/>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="L54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="X54" s="13"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="L54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="X54" s="12"/>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
@@ -4514,16 +4501,16 @@
       <c r="AV54"/>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="I55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="I55" s="9"/>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
@@ -4550,17 +4537,17 @@
       <c r="AV55"/>
     </row>
     <row r="56" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="9"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -4585,22 +4572,22 @@
       <c r="AE56"/>
       <c r="AF56"/>
       <c r="AG56"/>
-      <c r="AH56" s="5" t="s">
+      <c r="AH56" s="4" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="9"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -4625,22 +4612,22 @@
       <c r="AE57"/>
       <c r="AF57"/>
       <c r="AG57"/>
-      <c r="AH57" s="5" t="s">
+      <c r="AH57" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="9"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -4665,22 +4652,22 @@
       <c r="AE58"/>
       <c r="AF58"/>
       <c r="AG58"/>
-      <c r="AH58" s="5" t="s">
+      <c r="AH58" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="9"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -4705,22 +4692,22 @@
       <c r="AE59"/>
       <c r="AF59"/>
       <c r="AG59"/>
-      <c r="AH59" s="5" t="s">
+      <c r="AH59" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="9"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -4745,22 +4732,22 @@
       <c r="AE60"/>
       <c r="AF60"/>
       <c r="AG60"/>
-      <c r="AH60" s="5" t="s">
+      <c r="AH60" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -4785,22 +4772,22 @@
       <c r="AE61"/>
       <c r="AF61"/>
       <c r="AG61"/>
-      <c r="AH61" s="5" t="s">
+      <c r="AH61" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="9"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -4825,22 +4812,22 @@
       <c r="AE62"/>
       <c r="AF62"/>
       <c r="AG62"/>
-      <c r="AH62" s="5" t="s">
+      <c r="AH62" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -4865,22 +4852,22 @@
       <c r="AE63"/>
       <c r="AF63"/>
       <c r="AG63"/>
-      <c r="AH63" s="5" t="s">
+      <c r="AH63" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="9"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -4905,22 +4892,22 @@
       <c r="AE64"/>
       <c r="AF64"/>
       <c r="AG64"/>
-      <c r="AH64" s="5" t="s">
+      <c r="AH64" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -4945,22 +4932,22 @@
       <c r="AE65"/>
       <c r="AF65"/>
       <c r="AG65"/>
-      <c r="AH65" s="5" t="s">
+      <c r="AH65" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="9"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
@@ -4985,22 +4972,22 @@
       <c r="AE66"/>
       <c r="AF66"/>
       <c r="AG66"/>
-      <c r="AH66" s="5" t="s">
+      <c r="AH66" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="9"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
@@ -5025,22 +5012,22 @@
       <c r="AE67"/>
       <c r="AF67"/>
       <c r="AG67"/>
-      <c r="AH67" s="5" t="s">
+      <c r="AH67" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="9"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
@@ -5065,22 +5052,22 @@
       <c r="AE68"/>
       <c r="AF68"/>
       <c r="AG68"/>
-      <c r="AH68" s="5" t="s">
+      <c r="AH68" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="9"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
@@ -5105,22 +5092,22 @@
       <c r="AE69"/>
       <c r="AF69"/>
       <c r="AG69"/>
-      <c r="AH69" s="5" t="s">
+      <c r="AH69" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="9"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -5145,22 +5132,22 @@
       <c r="AE70"/>
       <c r="AF70"/>
       <c r="AG70"/>
-      <c r="AH70" s="5" t="s">
+      <c r="AH70" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="9"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -5185,22 +5172,22 @@
       <c r="AE71"/>
       <c r="AF71"/>
       <c r="AG71"/>
-      <c r="AH71" s="5" t="s">
+      <c r="AH71" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="9"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -5225,22 +5212,22 @@
       <c r="AE72"/>
       <c r="AF72"/>
       <c r="AG72"/>
-      <c r="AH72" s="5" t="s">
+      <c r="AH72" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="9"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -5265,22 +5252,22 @@
       <c r="AE73"/>
       <c r="AF73"/>
       <c r="AG73"/>
-      <c r="AH73" s="5" t="s">
+      <c r="AH73" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="9"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -5305,22 +5292,22 @@
       <c r="AE74"/>
       <c r="AF74"/>
       <c r="AG74"/>
-      <c r="AH74" s="5" t="s">
+      <c r="AH74" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="9"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -5345,22 +5332,22 @@
       <c r="AE75"/>
       <c r="AF75"/>
       <c r="AG75"/>
-      <c r="AH75" s="5" t="s">
+      <c r="AH75" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="9"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
@@ -5385,22 +5372,22 @@
       <c r="AE76"/>
       <c r="AF76"/>
       <c r="AG76"/>
-      <c r="AH76" s="5" t="s">
+      <c r="AH76" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="9"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -5425,22 +5412,22 @@
       <c r="AE77"/>
       <c r="AF77"/>
       <c r="AG77"/>
-      <c r="AH77" s="5" t="s">
+      <c r="AH77" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="9"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -5465,22 +5452,22 @@
       <c r="AE78"/>
       <c r="AF78"/>
       <c r="AG78"/>
-      <c r="AH78" s="5" t="s">
+      <c r="AH78" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="9"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
@@ -5505,22 +5492,22 @@
       <c r="AE79"/>
       <c r="AF79"/>
       <c r="AG79"/>
-      <c r="AH79" s="5" t="s">
+      <c r="AH79" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="9"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -5545,22 +5532,22 @@
       <c r="AE80"/>
       <c r="AF80"/>
       <c r="AG80"/>
-      <c r="AH80" s="5" t="s">
+      <c r="AH80" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="9"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
@@ -5585,22 +5572,22 @@
       <c r="AE81"/>
       <c r="AF81"/>
       <c r="AG81"/>
-      <c r="AH81" s="5" t="s">
+      <c r="AH81" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="9"/>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
@@ -5625,20 +5612,20 @@
       <c r="AE82"/>
       <c r="AF82"/>
       <c r="AG82"/>
-      <c r="AH82" s="5" t="s">
+      <c r="AH82" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A83" s="12"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="10"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="9"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
@@ -5665,15 +5652,15 @@
       <c r="AG83"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A84" s="12"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="10"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="9"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
@@ -5700,17 +5687,17 @@
       <c r="AG84"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="9"/>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
@@ -5737,17 +5724,17 @@
       <c r="AG85"/>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="9"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
@@ -5772,22 +5759,22 @@
       <c r="AE86"/>
       <c r="AF86"/>
       <c r="AG86"/>
-      <c r="AH86" s="5" t="s">
+      <c r="AH86" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="9"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -5812,22 +5799,22 @@
       <c r="AE87"/>
       <c r="AF87"/>
       <c r="AG87"/>
-      <c r="AH87" s="5" t="s">
+      <c r="AH87" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="9"/>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
@@ -5852,22 +5839,22 @@
       <c r="AE88"/>
       <c r="AF88"/>
       <c r="AG88"/>
-      <c r="AH88" s="5" t="s">
+      <c r="AH88" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="9"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
@@ -5892,22 +5879,22 @@
       <c r="AE89"/>
       <c r="AF89"/>
       <c r="AG89"/>
-      <c r="AH89" s="5" t="s">
+      <c r="AH89" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="9"/>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
@@ -5932,22 +5919,22 @@
       <c r="AE90"/>
       <c r="AF90"/>
       <c r="AG90"/>
-      <c r="AH90" s="5" t="s">
+      <c r="AH90" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="9"/>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
@@ -5972,22 +5959,22 @@
       <c r="AE91"/>
       <c r="AF91"/>
       <c r="AG91"/>
-      <c r="AH91" s="5" t="s">
+      <c r="AH91" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="9"/>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
@@ -6012,22 +5999,22 @@
       <c r="AE92"/>
       <c r="AF92"/>
       <c r="AG92"/>
-      <c r="AH92" s="5" t="s">
+      <c r="AH92" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="9"/>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
@@ -6052,22 +6039,22 @@
       <c r="AE93"/>
       <c r="AF93"/>
       <c r="AG93"/>
-      <c r="AH93" s="5" t="s">
+      <c r="AH93" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="9"/>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
@@ -6092,22 +6079,22 @@
       <c r="AE94"/>
       <c r="AF94"/>
       <c r="AG94"/>
-      <c r="AH94" s="5" t="s">
+      <c r="AH94" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="9"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
@@ -6132,22 +6119,22 @@
       <c r="AE95"/>
       <c r="AF95"/>
       <c r="AG95"/>
-      <c r="AH95" s="5" t="s">
+      <c r="AH95" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="9"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
@@ -6172,22 +6159,22 @@
       <c r="AE96"/>
       <c r="AF96"/>
       <c r="AG96"/>
-      <c r="AH96" s="5" t="s">
+      <c r="AH96" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="9"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
@@ -6212,22 +6199,22 @@
       <c r="AE97"/>
       <c r="AF97"/>
       <c r="AG97"/>
-      <c r="AH97" s="5" t="s">
+      <c r="AH97" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="9"/>
       <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
@@ -6252,22 +6239,22 @@
       <c r="AE98"/>
       <c r="AF98"/>
       <c r="AG98"/>
-      <c r="AH98" s="5" t="s">
+      <c r="AH98" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="9"/>
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99"/>
@@ -6292,22 +6279,22 @@
       <c r="AE99"/>
       <c r="AF99"/>
       <c r="AG99"/>
-      <c r="AH99" s="5" t="s">
+      <c r="AH99" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="9"/>
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100"/>
@@ -6332,22 +6319,22 @@
       <c r="AE100"/>
       <c r="AF100"/>
       <c r="AG100"/>
-      <c r="AH100" s="5" t="s">
+      <c r="AH100" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="9"/>
       <c r="J101"/>
       <c r="K101"/>
       <c r="L101"/>
@@ -6372,22 +6359,22 @@
       <c r="AE101"/>
       <c r="AF101"/>
       <c r="AG101"/>
-      <c r="AH101" s="5" t="s">
+      <c r="AH101" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="9"/>
       <c r="J102"/>
       <c r="K102"/>
       <c r="L102"/>
@@ -6412,22 +6399,22 @@
       <c r="AE102"/>
       <c r="AF102"/>
       <c r="AG102"/>
-      <c r="AH102" s="5" t="s">
+      <c r="AH102" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="9"/>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
@@ -6452,22 +6439,22 @@
       <c r="AE103"/>
       <c r="AF103"/>
       <c r="AG103"/>
-      <c r="AH103" s="5" t="s">
+      <c r="AH103" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="9"/>
       <c r="J104"/>
       <c r="K104"/>
       <c r="L104"/>
@@ -6492,22 +6479,22 @@
       <c r="AE104"/>
       <c r="AF104"/>
       <c r="AG104"/>
-      <c r="AH104" s="5" t="s">
+      <c r="AH104" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="9"/>
       <c r="J105"/>
       <c r="K105"/>
       <c r="L105"/>
@@ -6532,22 +6519,22 @@
       <c r="AE105"/>
       <c r="AF105"/>
       <c r="AG105"/>
-      <c r="AH105" s="5" t="s">
+      <c r="AH105" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="9"/>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106"/>
@@ -6572,22 +6559,22 @@
       <c r="AE106"/>
       <c r="AF106"/>
       <c r="AG106"/>
-      <c r="AH106" s="5" t="s">
+      <c r="AH106" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="9"/>
       <c r="J107"/>
       <c r="K107"/>
       <c r="L107"/>
@@ -6612,22 +6599,22 @@
       <c r="AE107"/>
       <c r="AF107"/>
       <c r="AG107"/>
-      <c r="AH107" s="5" t="s">
+      <c r="AH107" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="9"/>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108"/>
@@ -6652,22 +6639,22 @@
       <c r="AE108"/>
       <c r="AF108"/>
       <c r="AG108"/>
-      <c r="AH108" s="5" t="s">
+      <c r="AH108" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="9"/>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109"/>
@@ -6692,22 +6679,22 @@
       <c r="AE109"/>
       <c r="AF109"/>
       <c r="AG109"/>
-      <c r="AH109" s="5" t="s">
+      <c r="AH109" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="9"/>
       <c r="J110"/>
       <c r="K110"/>
       <c r="L110"/>
@@ -6732,22 +6719,22 @@
       <c r="AE110"/>
       <c r="AF110"/>
       <c r="AG110"/>
-      <c r="AH110" s="5" t="s">
+      <c r="AH110" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="9"/>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
@@ -6772,22 +6759,22 @@
       <c r="AE111"/>
       <c r="AF111"/>
       <c r="AG111"/>
-      <c r="AH111" s="5" t="s">
+      <c r="AH111" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="9"/>
       <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
@@ -6812,22 +6799,22 @@
       <c r="AE112"/>
       <c r="AF112"/>
       <c r="AG112"/>
-      <c r="AH112" s="5" t="s">
+      <c r="AH112" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="9"/>
       <c r="J113"/>
       <c r="K113"/>
       <c r="L113"/>
@@ -6852,22 +6839,22 @@
       <c r="AE113"/>
       <c r="AF113"/>
       <c r="AG113"/>
-      <c r="AH113" s="5" t="s">
+      <c r="AH113" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="9"/>
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
@@ -6892,22 +6879,22 @@
       <c r="AE114"/>
       <c r="AF114"/>
       <c r="AG114"/>
-      <c r="AH114" s="5" t="s">
+      <c r="AH114" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="9"/>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115"/>
@@ -6932,22 +6919,22 @@
       <c r="AE115"/>
       <c r="AF115"/>
       <c r="AG115"/>
-      <c r="AH115" s="5" t="s">
+      <c r="AH115" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="9"/>
       <c r="J116"/>
       <c r="K116"/>
       <c r="L116"/>
@@ -6972,22 +6959,22 @@
       <c r="AE116"/>
       <c r="AF116"/>
       <c r="AG116"/>
-      <c r="AH116" s="5" t="s">
+      <c r="AH116" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="9"/>
       <c r="J117"/>
       <c r="K117"/>
       <c r="L117"/>
@@ -7012,22 +6999,22 @@
       <c r="AE117"/>
       <c r="AF117"/>
       <c r="AG117"/>
-      <c r="AH117" s="5" t="s">
+      <c r="AH117" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="9"/>
       <c r="J118"/>
       <c r="K118"/>
       <c r="L118"/>
@@ -7052,22 +7039,22 @@
       <c r="AE118"/>
       <c r="AF118"/>
       <c r="AG118"/>
-      <c r="AH118" s="5" t="s">
+      <c r="AH118" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="9"/>
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119"/>
@@ -7092,22 +7079,22 @@
       <c r="AE119"/>
       <c r="AF119"/>
       <c r="AG119"/>
-      <c r="AH119" s="5" t="s">
+      <c r="AH119" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="9"/>
       <c r="J120"/>
       <c r="K120"/>
       <c r="L120"/>
@@ -7132,22 +7119,22 @@
       <c r="AE120"/>
       <c r="AF120"/>
       <c r="AG120"/>
-      <c r="AH120" s="5" t="s">
+      <c r="AH120" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="9"/>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121"/>
@@ -7172,22 +7159,22 @@
       <c r="AE121"/>
       <c r="AF121"/>
       <c r="AG121"/>
-      <c r="AH121" s="5" t="s">
+      <c r="AH121" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="9"/>
       <c r="J122"/>
       <c r="K122"/>
       <c r="L122"/>
@@ -7212,22 +7199,22 @@
       <c r="AE122"/>
       <c r="AF122"/>
       <c r="AG122"/>
-      <c r="AH122" s="5" t="s">
+      <c r="AH122" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="9"/>
       <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
@@ -7252,22 +7239,22 @@
       <c r="AE123"/>
       <c r="AF123"/>
       <c r="AG123"/>
-      <c r="AH123" s="5" t="s">
+      <c r="AH123" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="9"/>
       <c r="J124"/>
       <c r="K124"/>
       <c r="L124"/>
@@ -7292,22 +7279,22 @@
       <c r="AE124"/>
       <c r="AF124"/>
       <c r="AG124"/>
-      <c r="AH124" s="5" t="s">
+      <c r="AH124" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="9"/>
       <c r="J125"/>
       <c r="K125"/>
       <c r="L125"/>
@@ -7332,22 +7319,22 @@
       <c r="AE125"/>
       <c r="AF125"/>
       <c r="AG125"/>
-      <c r="AH125" s="5" t="s">
+      <c r="AH125" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="9"/>
       <c r="J126"/>
       <c r="K126"/>
       <c r="L126"/>
@@ -7372,22 +7359,22 @@
       <c r="AE126"/>
       <c r="AF126"/>
       <c r="AG126"/>
-      <c r="AH126" s="5" t="s">
+      <c r="AH126" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="9"/>
       <c r="J127"/>
       <c r="K127"/>
       <c r="L127"/>
@@ -7412,22 +7399,22 @@
       <c r="AE127"/>
       <c r="AF127"/>
       <c r="AG127"/>
-      <c r="AH127" s="5" t="s">
+      <c r="AH127" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="9"/>
       <c r="J128"/>
       <c r="K128"/>
       <c r="L128"/>
@@ -7452,20 +7439,20 @@
       <c r="AE128"/>
       <c r="AF128"/>
       <c r="AG128"/>
-      <c r="AH128" s="5" t="s">
+      <c r="AH128" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A129" s="12"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="10"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="9"/>
       <c r="J129"/>
       <c r="K129"/>
       <c r="L129"/>
@@ -7492,17 +7479,17 @@
       <c r="AG129"/>
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="9"/>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130"/>
@@ -7527,25 +7514,25 @@
       <c r="AE130"/>
       <c r="AF130"/>
       <c r="AG130"/>
-      <c r="AU130" s="5" t="s">
+      <c r="AU130" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AV130" s="5" t="s">
+      <c r="AV130" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="9"/>
       <c r="J131"/>
       <c r="K131"/>
       <c r="L131"/>
@@ -7574,17 +7561,17 @@
       <c r="AV131"/>
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="9"/>
       <c r="J132"/>
       <c r="K132"/>
       <c r="L132"/>
@@ -7609,28 +7596,28 @@
       <c r="AE132"/>
       <c r="AF132"/>
       <c r="AG132"/>
-      <c r="AH132" s="5" t="s">
+      <c r="AH132" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AU132" s="5">
+      <c r="AU132" s="4">
         <v>600</v>
       </c>
-      <c r="AV132" s="5">
+      <c r="AV132" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="9"/>
       <c r="J133"/>
       <c r="K133"/>
       <c r="L133"/>
@@ -7655,25 +7642,25 @@
       <c r="AE133"/>
       <c r="AF133"/>
       <c r="AG133"/>
-      <c r="AH133" s="5" t="s">
+      <c r="AH133" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AQ133" s="5" t="s">
+      <c r="AQ133" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="9"/>
       <c r="J134"/>
       <c r="K134"/>
       <c r="L134"/>
@@ -7698,28 +7685,28 @@
       <c r="AE134"/>
       <c r="AF134"/>
       <c r="AG134"/>
-      <c r="AH134" s="5" t="s">
+      <c r="AH134" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AU134" s="5">
+      <c r="AU134" s="4">
         <v>100</v>
       </c>
-      <c r="AV134" s="5">
+      <c r="AV134" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="9"/>
       <c r="J135"/>
       <c r="K135"/>
       <c r="L135"/>
@@ -7744,25 +7731,25 @@
       <c r="AE135"/>
       <c r="AF135"/>
       <c r="AG135"/>
-      <c r="AH135" s="5" t="s">
+      <c r="AH135" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AQ135" s="5" t="s">
+      <c r="AQ135" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="9"/>
       <c r="J136"/>
       <c r="K136"/>
       <c r="L136"/>
@@ -7787,28 +7774,28 @@
       <c r="AE136"/>
       <c r="AF136"/>
       <c r="AG136"/>
-      <c r="AH136" s="5" t="s">
+      <c r="AH136" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AU136" s="5">
+      <c r="AU136" s="4">
         <v>1000</v>
       </c>
-      <c r="AV136" s="5">
+      <c r="AV136" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="9"/>
       <c r="J137"/>
       <c r="K137"/>
       <c r="L137"/>
@@ -7833,25 +7820,25 @@
       <c r="AE137"/>
       <c r="AF137"/>
       <c r="AG137"/>
-      <c r="AH137" s="5" t="s">
+      <c r="AH137" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AQ137" s="5" t="s">
+      <c r="AQ137" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="9"/>
       <c r="J138"/>
       <c r="K138"/>
       <c r="L138"/>
@@ -7876,28 +7863,28 @@
       <c r="AE138"/>
       <c r="AF138"/>
       <c r="AG138"/>
-      <c r="AH138" s="5" t="s">
+      <c r="AH138" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AU138" s="5">
+      <c r="AU138" s="4">
         <v>50</v>
       </c>
-      <c r="AV138" s="5">
+      <c r="AV138" s="4">
         <v>0.1</v>
       </c>
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="9"/>
       <c r="J139"/>
       <c r="K139"/>
       <c r="L139"/>
@@ -7922,25 +7909,25 @@
       <c r="AE139"/>
       <c r="AF139"/>
       <c r="AG139"/>
-      <c r="AH139" s="5" t="s">
+      <c r="AH139" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AQ139" s="5" t="s">
+      <c r="AQ139" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="9"/>
       <c r="J140"/>
       <c r="K140"/>
       <c r="L140"/>
@@ -7965,28 +7952,28 @@
       <c r="AE140"/>
       <c r="AF140"/>
       <c r="AG140"/>
-      <c r="AH140" s="5" t="s">
+      <c r="AH140" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AU140" s="5">
+      <c r="AU140" s="4">
         <v>49</v>
       </c>
-      <c r="AV140" s="5">
+      <c r="AV140" s="4">
         <v>0.7</v>
       </c>
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="9"/>
       <c r="J141"/>
       <c r="K141"/>
       <c r="L141"/>
@@ -8011,25 +7998,25 @@
       <c r="AE141"/>
       <c r="AF141"/>
       <c r="AG141"/>
-      <c r="AH141" s="5" t="s">
+      <c r="AH141" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AQ141" s="5" t="s">
+      <c r="AQ141" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="9"/>
       <c r="J142"/>
       <c r="K142"/>
       <c r="L142"/>
@@ -8054,28 +8041,28 @@
       <c r="AE142"/>
       <c r="AF142"/>
       <c r="AG142"/>
-      <c r="AH142" s="5" t="s">
+      <c r="AH142" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AU142" s="5">
+      <c r="AU142" s="4">
         <v>660</v>
       </c>
-      <c r="AV142" s="5">
+      <c r="AV142" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="9"/>
       <c r="J143"/>
       <c r="K143"/>
       <c r="L143"/>
@@ -8100,25 +8087,25 @@
       <c r="AE143"/>
       <c r="AF143"/>
       <c r="AG143"/>
-      <c r="AH143" s="5" t="s">
+      <c r="AH143" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AQ143" s="5" t="s">
+      <c r="AQ143" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="9"/>
       <c r="J144"/>
       <c r="K144"/>
       <c r="L144"/>
@@ -8143,28 +8130,28 @@
       <c r="AE144"/>
       <c r="AF144"/>
       <c r="AG144"/>
-      <c r="AH144" s="5" t="s">
+      <c r="AH144" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AU144" s="5">
+      <c r="AU144" s="4">
         <v>460</v>
       </c>
-      <c r="AV144" s="5">
+      <c r="AV144" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="9"/>
       <c r="J145"/>
       <c r="K145"/>
       <c r="L145"/>
@@ -8189,25 +8176,25 @@
       <c r="AE145"/>
       <c r="AF145"/>
       <c r="AG145"/>
-      <c r="AH145" s="5" t="s">
+      <c r="AH145" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ145" s="5" t="s">
+      <c r="AQ145" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="9"/>
       <c r="J146"/>
       <c r="K146"/>
       <c r="L146"/>
@@ -8232,28 +8219,28 @@
       <c r="AE146"/>
       <c r="AF146"/>
       <c r="AG146"/>
-      <c r="AH146" s="5" t="s">
+      <c r="AH146" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU146" s="5">
+      <c r="AU146" s="4">
         <v>420</v>
       </c>
-      <c r="AV146" s="5">
+      <c r="AV146" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="9"/>
       <c r="J147"/>
       <c r="K147"/>
       <c r="L147"/>
@@ -8278,25 +8265,25 @@
       <c r="AE147"/>
       <c r="AF147"/>
       <c r="AG147"/>
-      <c r="AH147" s="5" t="s">
+      <c r="AH147" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AQ147" s="5" t="s">
+      <c r="AQ147" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="9"/>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148"/>
@@ -8321,28 +8308,28 @@
       <c r="AE148"/>
       <c r="AF148"/>
       <c r="AG148"/>
-      <c r="AH148" s="5" t="s">
+      <c r="AH148" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AU148" s="5">
+      <c r="AU148" s="4">
         <v>655</v>
       </c>
-      <c r="AV148" s="5">
+      <c r="AV148" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="9"/>
       <c r="J149"/>
       <c r="K149"/>
       <c r="L149"/>
@@ -8367,25 +8354,25 @@
       <c r="AE149"/>
       <c r="AF149"/>
       <c r="AG149"/>
-      <c r="AH149" s="5" t="s">
+      <c r="AH149" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AQ149" s="5" t="s">
+      <c r="AQ149" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="9"/>
       <c r="J150"/>
       <c r="K150"/>
       <c r="L150"/>
@@ -8410,28 +8397,28 @@
       <c r="AE150"/>
       <c r="AF150"/>
       <c r="AG150"/>
-      <c r="AH150" s="5" t="s">
+      <c r="AH150" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AU150" s="5">
+      <c r="AU150" s="4">
         <v>380</v>
       </c>
-      <c r="AV150" s="5">
+      <c r="AV150" s="4">
         <v>0.75</v>
       </c>
     </row>
     <row r="151" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="9"/>
       <c r="J151"/>
       <c r="K151"/>
       <c r="L151"/>
@@ -8456,25 +8443,25 @@
       <c r="AE151"/>
       <c r="AF151"/>
       <c r="AG151"/>
-      <c r="AH151" s="5" t="s">
+      <c r="AH151" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AQ151" s="5" t="s">
+      <c r="AQ151" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="9"/>
       <c r="J152"/>
       <c r="K152"/>
       <c r="L152"/>
@@ -8499,28 +8486,28 @@
       <c r="AE152"/>
       <c r="AF152"/>
       <c r="AG152"/>
-      <c r="AH152" s="5" t="s">
+      <c r="AH152" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AU152" s="5">
+      <c r="AU152" s="4">
         <v>1400</v>
       </c>
-      <c r="AV152" s="5">
+      <c r="AV152" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="9"/>
       <c r="J153"/>
       <c r="K153"/>
       <c r="L153"/>
@@ -8545,25 +8532,25 @@
       <c r="AE153"/>
       <c r="AF153"/>
       <c r="AG153"/>
-      <c r="AH153" s="5" t="s">
+      <c r="AH153" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AQ153" s="5" t="s">
+      <c r="AQ153" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="9"/>
       <c r="J154"/>
       <c r="K154"/>
       <c r="L154"/>
@@ -8588,28 +8575,28 @@
       <c r="AE154"/>
       <c r="AF154"/>
       <c r="AG154"/>
-      <c r="AH154" s="5" t="s">
+      <c r="AH154" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AU154" s="5">
+      <c r="AU154" s="4">
         <v>2200</v>
       </c>
-      <c r="AV154" s="5">
+      <c r="AV154" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="9"/>
       <c r="J155"/>
       <c r="K155"/>
       <c r="L155"/>
@@ -8634,25 +8621,25 @@
       <c r="AE155"/>
       <c r="AF155"/>
       <c r="AG155"/>
-      <c r="AH155" s="5" t="s">
+      <c r="AH155" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AQ155" s="5" t="s">
+      <c r="AQ155" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="9"/>
       <c r="J156"/>
       <c r="K156"/>
       <c r="L156"/>
@@ -8677,28 +8664,28 @@
       <c r="AE156"/>
       <c r="AF156"/>
       <c r="AG156"/>
-      <c r="AH156" s="5" t="s">
+      <c r="AH156" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AU156" s="5">
+      <c r="AU156" s="4">
         <v>850</v>
       </c>
-      <c r="AV156" s="5">
+      <c r="AV156" s="4">
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="9"/>
       <c r="J157"/>
       <c r="K157"/>
       <c r="L157"/>
@@ -8723,25 +8710,25 @@
       <c r="AE157"/>
       <c r="AF157"/>
       <c r="AG157"/>
-      <c r="AH157" s="5" t="s">
+      <c r="AH157" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AQ157" s="5" t="s">
+      <c r="AQ157" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="9"/>
       <c r="J158"/>
       <c r="K158"/>
       <c r="L158"/>
@@ -8766,28 +8753,28 @@
       <c r="AE158"/>
       <c r="AF158"/>
       <c r="AG158"/>
-      <c r="AH158" s="5" t="s">
+      <c r="AH158" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AU158" s="5">
+      <c r="AU158" s="4">
         <v>600</v>
       </c>
-      <c r="AV158" s="5">
+      <c r="AV158" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="9"/>
       <c r="J159"/>
       <c r="K159"/>
       <c r="L159"/>
@@ -8812,27 +8799,27 @@
       <c r="AE159"/>
       <c r="AF159"/>
       <c r="AG159"/>
-      <c r="AH159" s="5" t="s">
+      <c r="AH159" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AQ159" s="5" t="s">
+      <c r="AQ159" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AU159"/>
       <c r="AV159"/>
     </row>
     <row r="160" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-      <c r="E160" s="11"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="9"/>
       <c r="Y160"/>
       <c r="Z160"/>
       <c r="AA160"/>
@@ -8858,199 +8845,199 @@
       <c r="AU160"/>
       <c r="AV160"/>
     </row>
-    <row r="162" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-    </row>
-    <row r="163" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="7"/>
-    </row>
-    <row r="164" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-    </row>
-    <row r="165" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="9"/>
-      <c r="J165" s="7"/>
-    </row>
-    <row r="166" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="9"/>
-    </row>
-    <row r="167" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="9"/>
-    </row>
-    <row r="168" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="9"/>
-    </row>
-    <row r="169" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="9"/>
-    </row>
-    <row r="170" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-    </row>
-    <row r="171" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-    </row>
-    <row r="172" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-    </row>
-    <row r="173" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="9"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-    </row>
-    <row r="174" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="9"/>
-      <c r="J174" s="7"/>
-    </row>
-    <row r="175" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="9"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="9"/>
-    </row>
-    <row r="176" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="9"/>
-      <c r="J176" s="7"/>
-    </row>
-    <row r="177" spans="1:11" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="7"/>
+    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+    </row>
+    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="8"/>
+    </row>
+    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="8"/>
+    </row>
+    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="8"/>
+    </row>
+    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="6"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="8"/>
+    </row>
+    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A170" s="6"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="6"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="6"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A173" s="6"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="6"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="6"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="8"/>
+    </row>
+    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="6"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9121,21 +9108,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9358,24 +9330,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9392,4 +9362,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C591FA-70CC-4F02-9365-17BAEE2830DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8EDBE8-DB13-384D-BF85-586F60FDD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BI" sheetId="5" r:id="rId1"/>
     <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="Uni" sheetId="4" r:id="rId3"/>
+    <sheet name="ELC_Fuels" sheetId="9" r:id="rId3"/>
+    <sheet name="Uni" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="256">
   <si>
     <t>~TradeLinks</t>
   </si>
@@ -787,13 +787,28 @@
   </si>
   <si>
     <t>* PARAMETER XKFX contains the intital electrical transmission capacities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade of fuels to ELC-production </t>
+  </si>
+  <si>
+    <t>HETC</t>
+  </si>
+  <si>
+    <t>HETD</t>
+  </si>
+  <si>
+    <t>ELC???</t>
+  </si>
+  <si>
+    <t>ELC??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,8 +875,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,6 +980,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF5B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -971,7 +1011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1033,6 +1073,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1372,23 +1417,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:L10"/>
+  <dimension ref="C3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1502,10 +1547,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="31">
+        <v>1</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="28">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="28">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28">
+        <v>1</v>
+      </c>
+      <c r="H23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="28">
+        <v>1</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="28">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28">
+        <v>1</v>
+      </c>
+      <c r="F25" s="28">
+        <v>1</v>
+      </c>
+      <c r="G25" s="28">
+        <v>1</v>
+      </c>
+      <c r="H25" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1524,16 +1772,16 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" style="4"/>
+    <col min="2" max="2" width="3.83203125" style="4"/>
     <col min="3" max="24" width="6" style="4" customWidth="1"/>
-    <col min="25" max="33" width="5.26953125" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="3.81640625" style="4"/>
+    <col min="25" max="33" width="5.33203125" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="3.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>250</v>
       </c>
@@ -1580,7 +1828,7 @@
       <c r="AU1"/>
       <c r="AV1"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>249</v>
       </c>
@@ -1627,7 +1875,7 @@
       <c r="AU2"/>
       <c r="AV2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>248</v>
       </c>
@@ -1674,7 +1922,7 @@
       <c r="AU3"/>
       <c r="AV3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1718,7 +1966,7 @@
       <c r="AU4"/>
       <c r="AV4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
@@ -1765,7 +2013,7 @@
       <c r="AU5"/>
       <c r="AV5"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>246</v>
       </c>
@@ -1812,7 +2060,7 @@
       <c r="AU6"/>
       <c r="AV6"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>245</v>
       </c>
@@ -1859,7 +2107,7 @@
       <c r="AU7"/>
       <c r="AV7"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>244</v>
       </c>
@@ -1906,7 +2154,7 @@
       <c r="AU8"/>
       <c r="AV8"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -1953,7 +2201,7 @@
       <c r="AU9"/>
       <c r="AV9"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
@@ -2000,7 +2248,7 @@
       <c r="AU10"/>
       <c r="AV10"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>241</v>
       </c>
@@ -2047,7 +2295,7 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>240</v>
       </c>
@@ -2097,7 +2345,7 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>239</v>
       </c>
@@ -2147,7 +2395,7 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>238</v>
       </c>
@@ -2197,7 +2445,7 @@
       <c r="AU14"/>
       <c r="AV14"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2245,7 +2493,7 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2289,7 +2537,7 @@
       <c r="AU16"/>
       <c r="AV16"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>237</v>
       </c>
@@ -2341,7 +2589,7 @@
       <c r="AU17"/>
       <c r="AV17"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
@@ -2450,7 +2698,7 @@
       <c r="AU18"/>
       <c r="AV18"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2016</v>
       </c>
@@ -2504,7 +2752,7 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
@@ -2568,7 +2816,7 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2016</v>
       </c>
@@ -2632,7 +2880,7 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2016</v>
       </c>
@@ -2700,7 +2948,7 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2016</v>
       </c>
@@ -2768,7 +3016,7 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2016</v>
       </c>
@@ -2832,7 +3080,7 @@
       <c r="AU24"/>
       <c r="AV24"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2016</v>
       </c>
@@ -2894,7 +3142,7 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2016</v>
       </c>
@@ -2948,7 +3196,7 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2016</v>
       </c>
@@ -3003,7 +3251,7 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2016</v>
       </c>
@@ -3065,7 +3313,7 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -3119,7 +3367,7 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2016</v>
       </c>
@@ -3175,7 +3423,7 @@
       <c r="AU30"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2016</v>
       </c>
@@ -3229,7 +3477,7 @@
       <c r="AU31"/>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2016</v>
       </c>
@@ -3287,7 +3535,7 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2016</v>
       </c>
@@ -3351,7 +3599,7 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2016</v>
       </c>
@@ -3415,7 +3663,7 @@
       <c r="AU34"/>
       <c r="AV34"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2016</v>
       </c>
@@ -3479,7 +3727,7 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2016</v>
       </c>
@@ -3541,7 +3789,7 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2016</v>
       </c>
@@ -3603,7 +3851,7 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2016</v>
       </c>
@@ -3660,7 +3908,7 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>2016</v>
       </c>
@@ -3722,7 +3970,7 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>2016</v>
       </c>
@@ -3786,7 +4034,7 @@
       <c r="AU40"/>
       <c r="AV40"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
@@ -3852,7 +4100,7 @@
       <c r="AU41"/>
       <c r="AV41"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>2016</v>
       </c>
@@ -3918,7 +4166,7 @@
       <c r="AU42"/>
       <c r="AV42"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>2016</v>
       </c>
@@ -3980,7 +4228,7 @@
       <c r="AU43"/>
       <c r="AV43"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>2016</v>
       </c>
@@ -4044,7 +4292,7 @@
       <c r="AU44"/>
       <c r="AV44"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>2016</v>
       </c>
@@ -4108,7 +4356,7 @@
       <c r="AU45"/>
       <c r="AV45"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>2016</v>
       </c>
@@ -4172,7 +4420,7 @@
       <c r="AU46"/>
       <c r="AV46"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>2016</v>
       </c>
@@ -4232,7 +4480,7 @@
       <c r="AU47"/>
       <c r="AV47"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>2016</v>
       </c>
@@ -4290,7 +4538,7 @@
       <c r="AU48"/>
       <c r="AV48"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>205</v>
       </c>
@@ -4327,7 +4575,7 @@
       <c r="AU49"/>
       <c r="AV49"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>204</v>
       </c>
@@ -4364,7 +4612,7 @@
       <c r="AU50"/>
       <c r="AV50"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="L51" s="12"/>
@@ -4398,7 +4646,7 @@
       <c r="AU51"/>
       <c r="AV51"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="L52" s="12"/>
@@ -4432,7 +4680,7 @@
       <c r="AU52"/>
       <c r="AV52"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="L53" s="12"/>
@@ -4466,7 +4714,7 @@
       <c r="AU53"/>
       <c r="AV53"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="L54" s="12"/>
@@ -4500,7 +4748,7 @@
       <c r="AU54"/>
       <c r="AV54"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>203</v>
       </c>
@@ -4536,7 +4784,7 @@
       <c r="AU55"/>
       <c r="AV55"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>202</v>
       </c>
@@ -4576,7 +4824,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>200</v>
       </c>
@@ -4616,7 +4864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>198</v>
       </c>
@@ -4656,7 +4904,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>196</v>
       </c>
@@ -4696,7 +4944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>194</v>
       </c>
@@ -4736,7 +4984,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>192</v>
       </c>
@@ -4776,7 +5024,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>190</v>
       </c>
@@ -4816,7 +5064,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>188</v>
       </c>
@@ -4856,7 +5104,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>186</v>
       </c>
@@ -4896,7 +5144,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>184</v>
       </c>
@@ -4936,7 +5184,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>182</v>
       </c>
@@ -4976,7 +5224,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>180</v>
       </c>
@@ -5016,7 +5264,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>178</v>
       </c>
@@ -5056,7 +5304,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>176</v>
       </c>
@@ -5096,7 +5344,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>174</v>
       </c>
@@ -5136,7 +5384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>173</v>
       </c>
@@ -5176,7 +5424,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>172</v>
       </c>
@@ -5216,7 +5464,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>171</v>
       </c>
@@ -5256,7 +5504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>169</v>
       </c>
@@ -5296,7 +5544,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>167</v>
       </c>
@@ -5336,7 +5584,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>166</v>
       </c>
@@ -5376,7 +5624,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>165</v>
       </c>
@@ -5416,7 +5664,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>164</v>
       </c>
@@ -5456,7 +5704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>162</v>
       </c>
@@ -5496,7 +5744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>161</v>
       </c>
@@ -5536,7 +5784,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>160</v>
       </c>
@@ -5576,7 +5824,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>158</v>
       </c>
@@ -5616,7 +5864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5651,7 +5899,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5686,7 +5934,7 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>156</v>
       </c>
@@ -5723,7 +5971,7 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>155</v>
       </c>
@@ -5763,7 +6011,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>153</v>
       </c>
@@ -5803,7 +6051,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>151</v>
       </c>
@@ -5843,7 +6091,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>148</v>
       </c>
@@ -5883,7 +6131,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>148</v>
       </c>
@@ -5923,7 +6171,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>147</v>
       </c>
@@ -5963,7 +6211,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>145</v>
       </c>
@@ -6003,7 +6251,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>143</v>
       </c>
@@ -6043,7 +6291,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>141</v>
       </c>
@@ -6083,7 +6331,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>139</v>
       </c>
@@ -6123,7 +6371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>138</v>
       </c>
@@ -6163,7 +6411,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>137</v>
       </c>
@@ -6203,7 +6451,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>136</v>
       </c>
@@ -6243,7 +6491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>135</v>
       </c>
@@ -6283,7 +6531,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>133</v>
       </c>
@@ -6323,7 +6571,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>131</v>
       </c>
@@ -6363,7 +6611,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>129</v>
       </c>
@@ -6403,7 +6651,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>127</v>
       </c>
@@ -6443,7 +6691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>125</v>
       </c>
@@ -6483,7 +6731,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>123</v>
       </c>
@@ -6523,7 +6771,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>121</v>
       </c>
@@ -6563,7 +6811,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>119</v>
       </c>
@@ -6603,7 +6851,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>117</v>
       </c>
@@ -6643,7 +6891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>115</v>
       </c>
@@ -6683,7 +6931,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>113</v>
       </c>
@@ -6723,7 +6971,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>111</v>
       </c>
@@ -6763,7 +7011,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>109</v>
       </c>
@@ -6803,7 +7051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>105</v>
       </c>
@@ -6843,7 +7091,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>103</v>
       </c>
@@ -6883,7 +7131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>105</v>
       </c>
@@ -6923,7 +7171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>103</v>
       </c>
@@ -6963,7 +7211,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>101</v>
       </c>
@@ -7003,7 +7251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>99</v>
       </c>
@@ -7043,7 +7291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>97</v>
       </c>
@@ -7083,7 +7331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
@@ -7123,7 +7371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>93</v>
       </c>
@@ -7163,7 +7411,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>91</v>
       </c>
@@ -7203,7 +7451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>89</v>
       </c>
@@ -7243,7 +7491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>87</v>
       </c>
@@ -7283,7 +7531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>85</v>
       </c>
@@ -7323,7 +7571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>83</v>
       </c>
@@ -7363,7 +7611,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>81</v>
       </c>
@@ -7403,7 +7651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>80</v>
       </c>
@@ -7443,7 +7691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A129" s="11"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -7478,7 +7726,7 @@
       <c r="AF129"/>
       <c r="AG129"/>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>78</v>
       </c>
@@ -7521,7 +7769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>75</v>
       </c>
@@ -7560,7 +7808,7 @@
       <c r="AU131"/>
       <c r="AV131"/>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>74</v>
       </c>
@@ -7606,7 +7854,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>72</v>
       </c>
@@ -7649,7 +7897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>70</v>
       </c>
@@ -7695,7 +7943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>68</v>
       </c>
@@ -7738,7 +7986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>66</v>
       </c>
@@ -7784,7 +8032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>64</v>
       </c>
@@ -7827,7 +8075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>62</v>
       </c>
@@ -7873,7 +8121,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>60</v>
       </c>
@@ -7916,7 +8164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>58</v>
       </c>
@@ -7962,7 +8210,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>56</v>
       </c>
@@ -8005,7 +8253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>54</v>
       </c>
@@ -8051,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>52</v>
       </c>
@@ -8094,7 +8342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>50</v>
       </c>
@@ -8140,7 +8388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>48</v>
       </c>
@@ -8183,7 +8431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>46</v>
       </c>
@@ -8229,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>44</v>
       </c>
@@ -8272,7 +8520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>42</v>
       </c>
@@ -8318,7 +8566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>40</v>
       </c>
@@ -8361,7 +8609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>38</v>
       </c>
@@ -8407,7 +8655,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>36</v>
       </c>
@@ -8450,7 +8698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>34</v>
       </c>
@@ -8496,7 +8744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>32</v>
       </c>
@@ -8539,7 +8787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
         <v>30</v>
       </c>
@@ -8585,7 +8833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>28</v>
       </c>
@@ -8628,7 +8876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>26</v>
       </c>
@@ -8674,7 +8922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>24</v>
       </c>
@@ -8717,7 +8965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>22</v>
       </c>
@@ -8763,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>20</v>
       </c>
@@ -8808,7 +9056,7 @@
       <c r="AU159"/>
       <c r="AV159"/>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>17</v>
       </c>
@@ -8845,7 +9093,7 @@
       <c r="AU160"/>
       <c r="AV160"/>
     </row>
-    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -8858,7 +9106,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -8870,7 +9118,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -8882,7 +9130,7 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -8894,7 +9142,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -8906,7 +9154,7 @@
       <c r="I166" s="6"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -8918,7 +9166,7 @@
       <c r="I167" s="6"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -8930,7 +9178,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -8942,7 +9190,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -8954,7 +9202,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -8966,7 +9214,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -8978,7 +9226,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -8990,7 +9238,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -9002,7 +9250,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -9014,7 +9262,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -9026,7 +9274,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9049,6 +9297,183 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453E9C9B-AF79-A94B-AF8B-A51C56994D76}">
+  <dimension ref="B2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:G8"/>
@@ -9057,14 +9482,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -9081,22 +9506,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -9108,6 +9533,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9330,15 +9764,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9346,6 +9771,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9364,14 +9797,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
   <ds:schemaRefs>

--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8EDBE8-DB13-384D-BF85-586F60FDD91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="17016" windowHeight="10416" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="BI" sheetId="5" r:id="rId1"/>
+    <sheet name="ELCC" sheetId="5" r:id="rId1"/>
     <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="ELC_Fuels" sheetId="9" r:id="rId3"/>
-    <sheet name="Uni" sheetId="4" r:id="rId4"/>
+    <sheet name="ELC_Fuels3Spørgsmål" sheetId="9" r:id="rId3"/>
+    <sheet name="ELC_Fuels2Spørgsmål" sheetId="12" r:id="rId4"/>
+    <sheet name="Uni" sheetId="4" r:id="rId5"/>
+    <sheet name="HETC" sheetId="10" r:id="rId6"/>
+    <sheet name="HETD" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -807,7 +804,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1096,9 +1093,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1136,9 +1133,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,26 +1168,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1223,26 +1203,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1415,25 +1378,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:L25"/>
+  <dimension ref="C3:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -1516,7 +1479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>11</v>
       </c>
@@ -1547,213 +1510,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="28">
-        <v>1</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="28">
-        <v>1</v>
-      </c>
-      <c r="E23" s="28">
-        <v>1</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="28">
-        <v>1</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28">
-        <v>1</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="28">
-        <v>1</v>
-      </c>
-      <c r="E25" s="28">
-        <v>1</v>
-      </c>
-      <c r="F25" s="28">
-        <v>1</v>
-      </c>
-      <c r="G25" s="28">
-        <v>1</v>
-      </c>
-      <c r="H25" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1762,7 +1522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDBB1B2-3164-4C1E-9BA7-1A1B33D3D5D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1772,16 +1532,16 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="4"/>
+    <col min="2" max="2" width="3.77734375" style="4"/>
     <col min="3" max="24" width="6" style="4" customWidth="1"/>
     <col min="25" max="33" width="5.33203125" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="3.83203125" style="4"/>
+    <col min="34" max="16384" width="3.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>250</v>
       </c>
@@ -1828,7 +1588,7 @@
       <c r="AU1"/>
       <c r="AV1"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>249</v>
       </c>
@@ -1875,7 +1635,7 @@
       <c r="AU2"/>
       <c r="AV2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>248</v>
       </c>
@@ -1922,7 +1682,7 @@
       <c r="AU3"/>
       <c r="AV3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1966,7 +1726,7 @@
       <c r="AU4"/>
       <c r="AV4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>247</v>
       </c>
@@ -2013,7 +1773,7 @@
       <c r="AU5"/>
       <c r="AV5"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>246</v>
       </c>
@@ -2060,7 +1820,7 @@
       <c r="AU6"/>
       <c r="AV6"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>245</v>
       </c>
@@ -2107,7 +1867,7 @@
       <c r="AU7"/>
       <c r="AV7"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>244</v>
       </c>
@@ -2154,7 +1914,7 @@
       <c r="AU8"/>
       <c r="AV8"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>243</v>
       </c>
@@ -2201,7 +1961,7 @@
       <c r="AU9"/>
       <c r="AV9"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
@@ -2248,7 +2008,7 @@
       <c r="AU10"/>
       <c r="AV10"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>241</v>
       </c>
@@ -2295,7 +2055,7 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>240</v>
       </c>
@@ -2345,7 +2105,7 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>239</v>
       </c>
@@ -2395,7 +2155,7 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>238</v>
       </c>
@@ -2445,7 +2205,7 @@
       <c r="AU14"/>
       <c r="AV14"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2493,7 +2253,7 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2537,7 +2297,7 @@
       <c r="AU16"/>
       <c r="AV16"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>237</v>
       </c>
@@ -2589,7 +2349,7 @@
       <c r="AU17"/>
       <c r="AV17"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
@@ -2698,7 +2458,7 @@
       <c r="AU18"/>
       <c r="AV18"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2016</v>
       </c>
@@ -2752,7 +2512,7 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
@@ -2816,7 +2576,7 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2016</v>
       </c>
@@ -2880,7 +2640,7 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2016</v>
       </c>
@@ -2948,7 +2708,7 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2016</v>
       </c>
@@ -3016,7 +2776,7 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2016</v>
       </c>
@@ -3080,7 +2840,7 @@
       <c r="AU24"/>
       <c r="AV24"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2016</v>
       </c>
@@ -3142,7 +2902,7 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2016</v>
       </c>
@@ -3196,7 +2956,7 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2016</v>
       </c>
@@ -3251,7 +3011,7 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2016</v>
       </c>
@@ -3313,7 +3073,7 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -3367,7 +3127,7 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>2016</v>
       </c>
@@ -3423,7 +3183,7 @@
       <c r="AU30"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>2016</v>
       </c>
@@ -3477,7 +3237,7 @@
       <c r="AU31"/>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>2016</v>
       </c>
@@ -3535,7 +3295,7 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>2016</v>
       </c>
@@ -3599,7 +3359,7 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>2016</v>
       </c>
@@ -3663,7 +3423,7 @@
       <c r="AU34"/>
       <c r="AV34"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>2016</v>
       </c>
@@ -3727,7 +3487,7 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>2016</v>
       </c>
@@ -3789,7 +3549,7 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>2016</v>
       </c>
@@ -3851,7 +3611,7 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>2016</v>
       </c>
@@ -3908,7 +3668,7 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2016</v>
       </c>
@@ -3970,7 +3730,7 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>2016</v>
       </c>
@@ -4034,7 +3794,7 @@
       <c r="AU40"/>
       <c r="AV40"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
@@ -4100,7 +3860,7 @@
       <c r="AU41"/>
       <c r="AV41"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2016</v>
       </c>
@@ -4166,7 +3926,7 @@
       <c r="AU42"/>
       <c r="AV42"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>2016</v>
       </c>
@@ -4228,7 +3988,7 @@
       <c r="AU43"/>
       <c r="AV43"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>2016</v>
       </c>
@@ -4292,7 +4052,7 @@
       <c r="AU44"/>
       <c r="AV44"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>2016</v>
       </c>
@@ -4356,7 +4116,7 @@
       <c r="AU45"/>
       <c r="AV45"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2016</v>
       </c>
@@ -4420,7 +4180,7 @@
       <c r="AU46"/>
       <c r="AV46"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>2016</v>
       </c>
@@ -4480,7 +4240,7 @@
       <c r="AU47"/>
       <c r="AV47"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>2016</v>
       </c>
@@ -4538,7 +4298,7 @@
       <c r="AU48"/>
       <c r="AV48"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>205</v>
       </c>
@@ -4575,7 +4335,7 @@
       <c r="AU49"/>
       <c r="AV49"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>204</v>
       </c>
@@ -4612,7 +4372,7 @@
       <c r="AU50"/>
       <c r="AV50"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="L51" s="12"/>
@@ -4646,7 +4406,7 @@
       <c r="AU51"/>
       <c r="AV51"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="L52" s="12"/>
@@ -4680,7 +4440,7 @@
       <c r="AU52"/>
       <c r="AV52"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="L53" s="12"/>
@@ -4714,7 +4474,7 @@
       <c r="AU53"/>
       <c r="AV53"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="L54" s="12"/>
@@ -4748,7 +4508,7 @@
       <c r="AU54"/>
       <c r="AV54"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>203</v>
       </c>
@@ -4784,7 +4544,7 @@
       <c r="AU55"/>
       <c r="AV55"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>202</v>
       </c>
@@ -4824,7 +4584,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>200</v>
       </c>
@@ -4864,7 +4624,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>198</v>
       </c>
@@ -4904,7 +4664,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>196</v>
       </c>
@@ -4944,7 +4704,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>194</v>
       </c>
@@ -4984,7 +4744,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>192</v>
       </c>
@@ -5024,7 +4784,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>190</v>
       </c>
@@ -5064,7 +4824,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>188</v>
       </c>
@@ -5104,7 +4864,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>186</v>
       </c>
@@ -5144,7 +4904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>184</v>
       </c>
@@ -5184,7 +4944,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>182</v>
       </c>
@@ -5224,7 +4984,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>180</v>
       </c>
@@ -5264,7 +5024,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>178</v>
       </c>
@@ -5304,7 +5064,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>176</v>
       </c>
@@ -5344,7 +5104,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>174</v>
       </c>
@@ -5384,7 +5144,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>173</v>
       </c>
@@ -5424,7 +5184,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>172</v>
       </c>
@@ -5464,7 +5224,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>171</v>
       </c>
@@ -5504,7 +5264,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>169</v>
       </c>
@@ -5544,7 +5304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>167</v>
       </c>
@@ -5584,7 +5344,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>166</v>
       </c>
@@ -5624,7 +5384,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>165</v>
       </c>
@@ -5664,7 +5424,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>164</v>
       </c>
@@ -5704,7 +5464,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>162</v>
       </c>
@@ -5744,7 +5504,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>161</v>
       </c>
@@ -5784,7 +5544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>160</v>
       </c>
@@ -5824,7 +5584,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>158</v>
       </c>
@@ -5864,7 +5624,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5899,7 +5659,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5934,7 +5694,7 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>156</v>
       </c>
@@ -5971,7 +5731,7 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>155</v>
       </c>
@@ -6011,7 +5771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>153</v>
       </c>
@@ -6051,7 +5811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>151</v>
       </c>
@@ -6091,7 +5851,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>148</v>
       </c>
@@ -6131,7 +5891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>148</v>
       </c>
@@ -6171,7 +5931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>147</v>
       </c>
@@ -6211,7 +5971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>145</v>
       </c>
@@ -6251,7 +6011,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>143</v>
       </c>
@@ -6291,7 +6051,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>141</v>
       </c>
@@ -6331,7 +6091,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>139</v>
       </c>
@@ -6371,7 +6131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>138</v>
       </c>
@@ -6411,7 +6171,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>137</v>
       </c>
@@ -6451,7 +6211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>136</v>
       </c>
@@ -6491,7 +6251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>135</v>
       </c>
@@ -6531,7 +6291,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>133</v>
       </c>
@@ -6571,7 +6331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>131</v>
       </c>
@@ -6611,7 +6371,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>129</v>
       </c>
@@ -6651,7 +6411,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>127</v>
       </c>
@@ -6691,7 +6451,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>125</v>
       </c>
@@ -6731,7 +6491,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>123</v>
       </c>
@@ -6771,7 +6531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>121</v>
       </c>
@@ -6811,7 +6571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>119</v>
       </c>
@@ -6851,7 +6611,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>117</v>
       </c>
@@ -6891,7 +6651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>115</v>
       </c>
@@ -6931,7 +6691,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>113</v>
       </c>
@@ -6971,7 +6731,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>111</v>
       </c>
@@ -7011,7 +6771,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>109</v>
       </c>
@@ -7051,7 +6811,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>105</v>
       </c>
@@ -7091,7 +6851,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>103</v>
       </c>
@@ -7131,7 +6891,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>105</v>
       </c>
@@ -7171,7 +6931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>103</v>
       </c>
@@ -7211,7 +6971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>101</v>
       </c>
@@ -7251,7 +7011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>99</v>
       </c>
@@ -7291,7 +7051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>97</v>
       </c>
@@ -7331,7 +7091,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>95</v>
       </c>
@@ -7371,7 +7131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>93</v>
       </c>
@@ -7411,7 +7171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>91</v>
       </c>
@@ -7451,7 +7211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>89</v>
       </c>
@@ -7491,7 +7251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>87</v>
       </c>
@@ -7531,7 +7291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>85</v>
       </c>
@@ -7571,7 +7331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>83</v>
       </c>
@@ -7611,7 +7371,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>81</v>
       </c>
@@ -7651,7 +7411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>80</v>
       </c>
@@ -7691,7 +7451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -7726,7 +7486,7 @@
       <c r="AF129"/>
       <c r="AG129"/>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>78</v>
       </c>
@@ -7769,7 +7529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>75</v>
       </c>
@@ -7808,7 +7568,7 @@
       <c r="AU131"/>
       <c r="AV131"/>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>74</v>
       </c>
@@ -7854,7 +7614,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>72</v>
       </c>
@@ -7897,7 +7657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>70</v>
       </c>
@@ -7943,7 +7703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>68</v>
       </c>
@@ -7986,7 +7746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>66</v>
       </c>
@@ -8032,7 +7792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>64</v>
       </c>
@@ -8075,7 +7835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>62</v>
       </c>
@@ -8121,7 +7881,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>60</v>
       </c>
@@ -8164,7 +7924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>58</v>
       </c>
@@ -8210,7 +7970,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>56</v>
       </c>
@@ -8253,7 +8013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>54</v>
       </c>
@@ -8299,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>52</v>
       </c>
@@ -8342,7 +8102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>50</v>
       </c>
@@ -8388,7 +8148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>48</v>
       </c>
@@ -8431,7 +8191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>46</v>
       </c>
@@ -8477,7 +8237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>44</v>
       </c>
@@ -8520,7 +8280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>42</v>
       </c>
@@ -8566,7 +8326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>40</v>
       </c>
@@ -8609,7 +8369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>38</v>
       </c>
@@ -8655,7 +8415,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>36</v>
       </c>
@@ -8698,7 +8458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>34</v>
       </c>
@@ -8744,7 +8504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>32</v>
       </c>
@@ -8787,7 +8547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>30</v>
       </c>
@@ -8833,7 +8593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>28</v>
       </c>
@@ -8876,7 +8636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>26</v>
       </c>
@@ -8922,7 +8682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>24</v>
       </c>
@@ -8965,7 +8725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>22</v>
       </c>
@@ -9011,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>20</v>
       </c>
@@ -9056,7 +8816,7 @@
       <c r="AU159"/>
       <c r="AV159"/>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>17</v>
       </c>
@@ -9093,7 +8853,7 @@
       <c r="AU160"/>
       <c r="AV160"/>
     </row>
-    <row r="162" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -9106,7 +8866,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -9118,7 +8878,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -9130,7 +8890,7 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -9142,7 +8902,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -9154,7 +8914,7 @@
       <c r="I166" s="6"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -9166,7 +8926,7 @@
       <c r="I167" s="6"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -9178,7 +8938,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -9190,7 +8950,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -9202,7 +8962,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -9214,7 +8974,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -9226,7 +8986,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -9238,7 +8998,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -9250,7 +9010,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -9262,7 +9022,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -9274,7 +9034,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="1:11" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9289,7 +9049,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B219" r:id="rId1" display="https://www.energinet.dk/SiteCollectionDocuments/Danske%20dokumenter/El/Redeg%C3%B8relse%20for%20elforsyningssikkerhed%202015.pdf" xr:uid="{22B4812A-BA6C-4485-B3AD-6C3110AD72B4}"/>
+    <hyperlink ref="B219" r:id="rId1" display="https://www.energinet.dk/SiteCollectionDocuments/Danske%20dokumenter/El/Redeg%C3%B8relse%20for%20elforsyningssikkerhed%202015.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9297,21 +9057,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453E9C9B-AF79-A94B-AF8B-A51C56994D76}">
-  <dimension ref="B2:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>254</v>
       </c>
@@ -9331,7 +9091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -9349,7 +9109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -9358,7 +9118,7 @@
       </c>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -9366,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -9374,7 +9134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -9382,89 +9142,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="27">
-        <v>1</v>
-      </c>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9474,7 +9153,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:G8"/>
   <sheetViews>
@@ -9482,7 +9257,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -9529,6 +9304,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9542,6 +9550,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9764,12 +9778,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
   <ds:schemaRefs>
@@ -9779,6 +9787,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9795,13 +9812,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_CC8F4E9F3350E3AC6E8689FDDB2451A7846C4CCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A3F235-0C0E-432D-9556-EF11F46D7866}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="17016" windowHeight="10416" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELCC" sheetId="5" r:id="rId1"/>
@@ -16,41 +22,15 @@
     <sheet name="HETD" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="249">
   <si>
     <t>~TradeLinks</t>
   </si>
   <si>
-    <t>&lt;CommName&gt;</t>
-  </si>
-  <si>
-    <t>DK-East</t>
-  </si>
-  <si>
-    <t>DK-West</t>
-  </si>
-  <si>
-    <t>MINRNW</t>
-  </si>
-  <si>
-    <t>IMPEXP</t>
-  </si>
-  <si>
     <t>ELCC</t>
   </si>
   <si>
@@ -793,18 +773,12 @@
   </si>
   <si>
     <t>HETD</t>
-  </si>
-  <si>
-    <t>ELC???</t>
-  </si>
-  <si>
-    <t>ELC??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1093,9 +1067,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1133,9 +1107,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1168,9 +1142,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,9 +1194,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1378,7 +1386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:L10"/>
   <sheetViews>
@@ -1386,58 +1394,58 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="K4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
       </c>
       <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -1450,15 +1458,15 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1473,15 +1481,15 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1493,9 +1501,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1510,9 +1518,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet49">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -1532,18 +1540,18 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="4"/>
+    <col min="2" max="2" width="3.81640625" style="4"/>
     <col min="3" max="24" width="6" style="4" customWidth="1"/>
-    <col min="25" max="33" width="5.33203125" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="3.77734375" style="4"/>
+    <col min="25" max="33" width="5.36328125" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="3.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1588,9 +1596,9 @@
       <c r="AU1"/>
       <c r="AV1"/>
     </row>
-    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1635,9 +1643,9 @@
       <c r="AU2"/>
       <c r="AV2"/>
     </row>
-    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1682,7 +1690,7 @@
       <c r="AU3"/>
       <c r="AV3"/>
     </row>
-    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1726,9 +1734,9 @@
       <c r="AU4"/>
       <c r="AV4"/>
     </row>
-    <row r="5" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1773,9 +1781,9 @@
       <c r="AU5"/>
       <c r="AV5"/>
     </row>
-    <row r="6" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1820,9 +1828,9 @@
       <c r="AU6"/>
       <c r="AV6"/>
     </row>
-    <row r="7" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1867,9 +1875,9 @@
       <c r="AU7"/>
       <c r="AV7"/>
     </row>
-    <row r="8" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1914,9 +1922,9 @@
       <c r="AU8"/>
       <c r="AV8"/>
     </row>
-    <row r="9" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1961,9 +1969,9 @@
       <c r="AU9"/>
       <c r="AV9"/>
     </row>
-    <row r="10" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2008,9 +2016,9 @@
       <c r="AU10"/>
       <c r="AV10"/>
     </row>
-    <row r="11" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2055,9 +2063,9 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2105,9 +2113,9 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2155,9 +2163,9 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2205,7 +2213,7 @@
       <c r="AU14"/>
       <c r="AV14"/>
     </row>
-    <row r="15" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2253,7 +2261,7 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2297,9 +2305,9 @@
       <c r="AU16"/>
       <c r="AV16"/>
     </row>
-    <row r="17" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2349,98 +2357,98 @@
       <c r="AU17"/>
       <c r="AV17"/>
     </row>
-    <row r="18" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AD18" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AE18" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AF18" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AG18" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AH18"/>
       <c r="AI18"/>
@@ -2458,15 +2466,15 @@
       <c r="AU18"/>
       <c r="AV18"/>
     </row>
-    <row r="19" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>2016</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="21"/>
@@ -2512,15 +2520,15 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="15"/>
@@ -2576,15 +2584,15 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>2016</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="24">
@@ -2640,15 +2648,15 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>2016</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="24">
@@ -2708,15 +2716,15 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>2016</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="24"/>
@@ -2776,15 +2784,15 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>2016</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="18">
@@ -2840,15 +2848,15 @@
       <c r="AU24"/>
       <c r="AV24"/>
     </row>
-    <row r="25" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2016</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="18"/>
@@ -2902,15 +2910,15 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>2016</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -2956,15 +2964,15 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>2016</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -3011,15 +3019,15 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>2016</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D28" s="4">
         <v>3300</v>
@@ -3073,15 +3081,15 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -3127,15 +3135,15 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>2016</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -3183,15 +3191,15 @@
       <c r="AU30"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>2016</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -3237,15 +3245,15 @@
       <c r="AU31"/>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>2016</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D32" s="4">
         <v>1400</v>
@@ -3295,15 +3303,15 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>2016</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="18"/>
@@ -3359,15 +3367,15 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2016</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="18"/>
@@ -3423,15 +3431,15 @@
       <c r="AU34"/>
       <c r="AV34"/>
     </row>
-    <row r="35" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>2016</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="18"/>
@@ -3487,15 +3495,15 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2016</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="18"/>
@@ -3549,15 +3557,15 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>2016</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="18"/>
@@ -3611,15 +3619,15 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>2016</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -3668,15 +3676,15 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>2016</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -3730,15 +3738,15 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>2016</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -3794,15 +3802,15 @@
       <c r="AU40"/>
       <c r="AV40"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -3860,15 +3868,15 @@
       <c r="AU41"/>
       <c r="AV41"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>2016</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="18">
@@ -3926,15 +3934,15 @@
       <c r="AU42"/>
       <c r="AV42"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>2016</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -3988,15 +3996,15 @@
       <c r="AU43"/>
       <c r="AV43"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>2016</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4052,15 +4060,15 @@
       <c r="AU44"/>
       <c r="AV44"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>2016</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -4116,15 +4124,15 @@
       <c r="AU45"/>
       <c r="AV45"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>2016</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -4180,15 +4188,15 @@
       <c r="AU46"/>
       <c r="AV46"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>2016</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
@@ -4240,15 +4248,15 @@
       <c r="AU47"/>
       <c r="AV47"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>2016</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -4298,9 +4306,9 @@
       <c r="AU48"/>
       <c r="AV48"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4335,9 +4343,9 @@
       <c r="AU49"/>
       <c r="AV49"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4372,7 +4380,7 @@
       <c r="AU50"/>
       <c r="AV50"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="L51" s="12"/>
@@ -4406,7 +4414,7 @@
       <c r="AU51"/>
       <c r="AV51"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="L52" s="12"/>
@@ -4440,7 +4448,7 @@
       <c r="AU52"/>
       <c r="AV52"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="L53" s="12"/>
@@ -4474,7 +4482,7 @@
       <c r="AU53"/>
       <c r="AV53"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="L54" s="12"/>
@@ -4508,9 +4516,9 @@
       <c r="AU54"/>
       <c r="AV54"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4544,9 +4552,9 @@
       <c r="AU55"/>
       <c r="AV55"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -4581,12 +4589,12 @@
       <c r="AF56"/>
       <c r="AG56"/>
       <c r="AH56" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -4621,12 +4629,12 @@
       <c r="AF57"/>
       <c r="AG57"/>
       <c r="AH57" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -4661,12 +4669,12 @@
       <c r="AF58"/>
       <c r="AG58"/>
       <c r="AH58" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4701,12 +4709,12 @@
       <c r="AF59"/>
       <c r="AG59"/>
       <c r="AH59" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4741,12 +4749,12 @@
       <c r="AF60"/>
       <c r="AG60"/>
       <c r="AH60" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4781,12 +4789,12 @@
       <c r="AF61"/>
       <c r="AG61"/>
       <c r="AH61" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4821,12 +4829,12 @@
       <c r="AF62"/>
       <c r="AG62"/>
       <c r="AH62" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4861,12 +4869,12 @@
       <c r="AF63"/>
       <c r="AG63"/>
       <c r="AH63" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -4901,12 +4909,12 @@
       <c r="AF64"/>
       <c r="AG64"/>
       <c r="AH64" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -4941,12 +4949,12 @@
       <c r="AF65"/>
       <c r="AG65"/>
       <c r="AH65" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -4981,12 +4989,12 @@
       <c r="AF66"/>
       <c r="AG66"/>
       <c r="AH66" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -5021,12 +5029,12 @@
       <c r="AF67"/>
       <c r="AG67"/>
       <c r="AH67" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -5061,12 +5069,12 @@
       <c r="AF68"/>
       <c r="AG68"/>
       <c r="AH68" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -5101,12 +5109,12 @@
       <c r="AF69"/>
       <c r="AG69"/>
       <c r="AH69" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -5141,12 +5149,12 @@
       <c r="AF70"/>
       <c r="AG70"/>
       <c r="AH70" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -5181,12 +5189,12 @@
       <c r="AF71"/>
       <c r="AG71"/>
       <c r="AH71" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5221,12 +5229,12 @@
       <c r="AF72"/>
       <c r="AG72"/>
       <c r="AH72" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5261,12 +5269,12 @@
       <c r="AF73"/>
       <c r="AG73"/>
       <c r="AH73" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5301,12 +5309,12 @@
       <c r="AF74"/>
       <c r="AG74"/>
       <c r="AH74" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5341,12 +5349,12 @@
       <c r="AF75"/>
       <c r="AG75"/>
       <c r="AH75" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5381,12 +5389,12 @@
       <c r="AF76"/>
       <c r="AG76"/>
       <c r="AH76" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5421,12 +5429,12 @@
       <c r="AF77"/>
       <c r="AG77"/>
       <c r="AH77" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -5461,12 +5469,12 @@
       <c r="AF78"/>
       <c r="AG78"/>
       <c r="AH78" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -5501,12 +5509,12 @@
       <c r="AF79"/>
       <c r="AG79"/>
       <c r="AH79" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -5541,12 +5549,12 @@
       <c r="AF80"/>
       <c r="AG80"/>
       <c r="AH80" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -5581,12 +5589,12 @@
       <c r="AF81"/>
       <c r="AG81"/>
       <c r="AH81" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -5621,10 +5629,10 @@
       <c r="AF82"/>
       <c r="AG82"/>
       <c r="AH82" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5659,7 +5667,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5694,9 +5702,9 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -5731,9 +5739,9 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5768,12 +5776,12 @@
       <c r="AF86"/>
       <c r="AG86"/>
       <c r="AH86" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -5808,12 +5816,12 @@
       <c r="AF87"/>
       <c r="AG87"/>
       <c r="AH87" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -5848,12 +5856,12 @@
       <c r="AF88"/>
       <c r="AG88"/>
       <c r="AH88" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -5888,12 +5896,12 @@
       <c r="AF89"/>
       <c r="AG89"/>
       <c r="AH89" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -5928,12 +5936,12 @@
       <c r="AF90"/>
       <c r="AG90"/>
       <c r="AH90" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -5968,12 +5976,12 @@
       <c r="AF91"/>
       <c r="AG91"/>
       <c r="AH91" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -6008,12 +6016,12 @@
       <c r="AF92"/>
       <c r="AG92"/>
       <c r="AH92" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -6048,12 +6056,12 @@
       <c r="AF93"/>
       <c r="AG93"/>
       <c r="AH93" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -6088,12 +6096,12 @@
       <c r="AF94"/>
       <c r="AG94"/>
       <c r="AH94" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -6128,12 +6136,12 @@
       <c r="AF95"/>
       <c r="AG95"/>
       <c r="AH95" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -6168,12 +6176,12 @@
       <c r="AF96"/>
       <c r="AG96"/>
       <c r="AH96" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -6208,12 +6216,12 @@
       <c r="AF97"/>
       <c r="AG97"/>
       <c r="AH97" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -6248,12 +6256,12 @@
       <c r="AF98"/>
       <c r="AG98"/>
       <c r="AH98" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -6288,12 +6296,12 @@
       <c r="AF99"/>
       <c r="AG99"/>
       <c r="AH99" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -6328,12 +6336,12 @@
       <c r="AF100"/>
       <c r="AG100"/>
       <c r="AH100" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -6368,12 +6376,12 @@
       <c r="AF101"/>
       <c r="AG101"/>
       <c r="AH101" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -6408,12 +6416,12 @@
       <c r="AF102"/>
       <c r="AG102"/>
       <c r="AH102" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -6448,12 +6456,12 @@
       <c r="AF103"/>
       <c r="AG103"/>
       <c r="AH103" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -6488,12 +6496,12 @@
       <c r="AF104"/>
       <c r="AG104"/>
       <c r="AH104" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -6528,12 +6536,12 @@
       <c r="AF105"/>
       <c r="AG105"/>
       <c r="AH105" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -6568,12 +6576,12 @@
       <c r="AF106"/>
       <c r="AG106"/>
       <c r="AH106" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -6608,12 +6616,12 @@
       <c r="AF107"/>
       <c r="AG107"/>
       <c r="AH107" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -6648,12 +6656,12 @@
       <c r="AF108"/>
       <c r="AG108"/>
       <c r="AH108" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -6688,12 +6696,12 @@
       <c r="AF109"/>
       <c r="AG109"/>
       <c r="AH109" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -6728,12 +6736,12 @@
       <c r="AF110"/>
       <c r="AG110"/>
       <c r="AH110" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -6768,12 +6776,12 @@
       <c r="AF111"/>
       <c r="AG111"/>
       <c r="AH111" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -6808,12 +6816,12 @@
       <c r="AF112"/>
       <c r="AG112"/>
       <c r="AH112" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -6848,12 +6856,12 @@
       <c r="AF113"/>
       <c r="AG113"/>
       <c r="AH113" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -6888,12 +6896,12 @@
       <c r="AF114"/>
       <c r="AG114"/>
       <c r="AH114" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -6928,12 +6936,12 @@
       <c r="AF115"/>
       <c r="AG115"/>
       <c r="AH115" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -6968,12 +6976,12 @@
       <c r="AF116"/>
       <c r="AG116"/>
       <c r="AH116" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -7008,12 +7016,12 @@
       <c r="AF117"/>
       <c r="AG117"/>
       <c r="AH117" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -7048,12 +7056,12 @@
       <c r="AF118"/>
       <c r="AG118"/>
       <c r="AH118" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -7088,12 +7096,12 @@
       <c r="AF119"/>
       <c r="AG119"/>
       <c r="AH119" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -7128,12 +7136,12 @@
       <c r="AF120"/>
       <c r="AG120"/>
       <c r="AH120" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -7168,12 +7176,12 @@
       <c r="AF121"/>
       <c r="AG121"/>
       <c r="AH121" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -7208,12 +7216,12 @@
       <c r="AF122"/>
       <c r="AG122"/>
       <c r="AH122" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -7248,12 +7256,12 @@
       <c r="AF123"/>
       <c r="AG123"/>
       <c r="AH123" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -7288,12 +7296,12 @@
       <c r="AF124"/>
       <c r="AG124"/>
       <c r="AH124" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -7328,12 +7336,12 @@
       <c r="AF125"/>
       <c r="AG125"/>
       <c r="AH125" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -7368,12 +7376,12 @@
       <c r="AF126"/>
       <c r="AG126"/>
       <c r="AH126" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -7408,12 +7416,12 @@
       <c r="AF127"/>
       <c r="AG127"/>
       <c r="AH127" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -7448,10 +7456,10 @@
       <c r="AF128"/>
       <c r="AG128"/>
       <c r="AH128" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A129" s="11"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -7486,9 +7494,9 @@
       <c r="AF129"/>
       <c r="AG129"/>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -7523,15 +7531,15 @@
       <c r="AF130"/>
       <c r="AG130"/>
       <c r="AU130" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AV130" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -7568,9 +7576,9 @@
       <c r="AU131"/>
       <c r="AV131"/>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A132" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -7605,7 +7613,7 @@
       <c r="AF132"/>
       <c r="AG132"/>
       <c r="AH132" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AU132" s="4">
         <v>600</v>
@@ -7614,9 +7622,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -7651,15 +7659,15 @@
       <c r="AF133"/>
       <c r="AG133"/>
       <c r="AH133" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AQ133" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -7694,7 +7702,7 @@
       <c r="AF134"/>
       <c r="AG134"/>
       <c r="AH134" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AU134" s="4">
         <v>100</v>
@@ -7703,9 +7711,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -7740,15 +7748,15 @@
       <c r="AF135"/>
       <c r="AG135"/>
       <c r="AH135" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AQ135" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -7783,7 +7791,7 @@
       <c r="AF136"/>
       <c r="AG136"/>
       <c r="AH136" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AU136" s="4">
         <v>1000</v>
@@ -7792,9 +7800,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -7829,15 +7837,15 @@
       <c r="AF137"/>
       <c r="AG137"/>
       <c r="AH137" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AQ137" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -7872,7 +7880,7 @@
       <c r="AF138"/>
       <c r="AG138"/>
       <c r="AH138" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AU138" s="4">
         <v>50</v>
@@ -7881,9 +7889,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -7918,15 +7926,15 @@
       <c r="AF139"/>
       <c r="AG139"/>
       <c r="AH139" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AQ139" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -7961,7 +7969,7 @@
       <c r="AF140"/>
       <c r="AG140"/>
       <c r="AH140" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AU140" s="4">
         <v>49</v>
@@ -7970,9 +7978,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -8007,15 +8015,15 @@
       <c r="AF141"/>
       <c r="AG141"/>
       <c r="AH141" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ141" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -8050,7 +8058,7 @@
       <c r="AF142"/>
       <c r="AG142"/>
       <c r="AH142" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AU142" s="4">
         <v>660</v>
@@ -8059,9 +8067,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -8096,15 +8104,15 @@
       <c r="AF143"/>
       <c r="AG143"/>
       <c r="AH143" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AQ143" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -8139,7 +8147,7 @@
       <c r="AF144"/>
       <c r="AG144"/>
       <c r="AH144" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AU144" s="4">
         <v>460</v>
@@ -8148,9 +8156,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -8185,15 +8193,15 @@
       <c r="AF145"/>
       <c r="AG145"/>
       <c r="AH145" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AQ145" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -8228,7 +8236,7 @@
       <c r="AF146"/>
       <c r="AG146"/>
       <c r="AH146" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AU146" s="4">
         <v>420</v>
@@ -8237,9 +8245,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -8274,15 +8282,15 @@
       <c r="AF147"/>
       <c r="AG147"/>
       <c r="AH147" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AQ147" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A148" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -8317,7 +8325,7 @@
       <c r="AF148"/>
       <c r="AG148"/>
       <c r="AH148" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AU148" s="4">
         <v>655</v>
@@ -8326,9 +8334,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -8363,15 +8371,15 @@
       <c r="AF149"/>
       <c r="AG149"/>
       <c r="AH149" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AQ149" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A150" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -8406,7 +8414,7 @@
       <c r="AF150"/>
       <c r="AG150"/>
       <c r="AH150" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AU150" s="4">
         <v>380</v>
@@ -8415,9 +8423,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -8452,15 +8460,15 @@
       <c r="AF151"/>
       <c r="AG151"/>
       <c r="AH151" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ151" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A152" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -8495,7 +8503,7 @@
       <c r="AF152"/>
       <c r="AG152"/>
       <c r="AH152" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AU152" s="4">
         <v>1400</v>
@@ -8504,9 +8512,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -8541,15 +8549,15 @@
       <c r="AF153"/>
       <c r="AG153"/>
       <c r="AH153" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AQ153" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A154" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -8584,7 +8592,7 @@
       <c r="AF154"/>
       <c r="AG154"/>
       <c r="AH154" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AU154" s="4">
         <v>2200</v>
@@ -8593,9 +8601,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -8630,15 +8638,15 @@
       <c r="AF155"/>
       <c r="AG155"/>
       <c r="AH155" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AQ155" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A156" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -8673,7 +8681,7 @@
       <c r="AF156"/>
       <c r="AG156"/>
       <c r="AH156" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AU156" s="4">
         <v>850</v>
@@ -8682,9 +8690,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -8719,15 +8727,15 @@
       <c r="AF157"/>
       <c r="AG157"/>
       <c r="AH157" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AQ157" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A158" s="11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -8762,7 +8770,7 @@
       <c r="AF158"/>
       <c r="AG158"/>
       <c r="AH158" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AU158" s="4">
         <v>600</v>
@@ -8771,9 +8779,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -8808,17 +8816,17 @@
       <c r="AF159"/>
       <c r="AG159"/>
       <c r="AH159" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AQ159" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AU159"/>
       <c r="AV159"/>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -8853,7 +8861,7 @@
       <c r="AU160"/>
       <c r="AV160"/>
     </row>
-    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -8866,7 +8874,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -8878,7 +8886,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -8890,7 +8898,7 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -8902,7 +8910,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -8914,7 +8922,7 @@
       <c r="I166" s="6"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -8926,7 +8934,7 @@
       <c r="I167" s="6"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -8938,7 +8946,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -8950,7 +8958,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -8962,7 +8970,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -8974,7 +8982,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -8986,7 +8994,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -8998,7 +9006,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -9010,7 +9018,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -9022,7 +9030,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -9034,7 +9042,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9049,7 +9057,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B219" r:id="rId1" display="https://www.energinet.dk/SiteCollectionDocuments/Danske%20dokumenter/El/Redeg%C3%B8relse%20for%20elforsyningssikkerhed%202015.pdf"/>
+    <hyperlink ref="B219" r:id="rId1" display="https://www.energinet.dk/SiteCollectionDocuments/Danske%20dokumenter/El/Redeg%C3%B8relse%20for%20elforsyningssikkerhed%202015.pdf" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9057,94 +9065,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G20"/>
+      <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
       <c r="C4" s="27"/>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9153,94 +9103,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C3:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="3"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="27">
-        <v>1</v>
-      </c>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="3"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9249,57 +9141,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C3" sqref="C3:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9308,50 +9180,50 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -9364,9 +9236,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -9381,9 +9253,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -9395,9 +9267,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9418,16 +9290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9437,29 +9309,29 @@
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" s="29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C5" s="30" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
@@ -9467,9 +9339,9 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C6" s="30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="31">
         <v>1</v>
@@ -9483,9 +9355,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C7" s="28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
@@ -9501,9 +9373,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C8" s="28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8" s="28">
         <v>1</v>
@@ -9517,9 +9389,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C9" s="28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="28">
         <v>1</v>
@@ -9541,21 +9413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9778,24 +9635,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9812,4 +9667,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -5,28 +5,37 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_CC8F4E9F3350E3AC6E8689FDDB2451A7846C4CCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5A3F235-0C0E-432D-9556-EF11F46D7866}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDE2B4-EB3A-4A64-B350-9F458E24A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELCC" sheetId="5" r:id="rId1"/>
     <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="ELC_Fuels3Spørgsmål" sheetId="9" r:id="rId3"/>
-    <sheet name="ELC_Fuels2Spørgsmål" sheetId="12" r:id="rId4"/>
-    <sheet name="Uni" sheetId="4" r:id="rId5"/>
-    <sheet name="HETC" sheetId="10" r:id="rId6"/>
-    <sheet name="HETD" sheetId="11" r:id="rId7"/>
+    <sheet name="HETC" sheetId="10" r:id="rId3"/>
+    <sheet name="HETD" sheetId="11" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="248">
   <si>
     <t>~TradeLinks</t>
   </si>
@@ -764,9 +773,6 @@
   </si>
   <si>
     <t>* PARAMETER XKFX contains the intital electrical transmission capacities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade of fuels to ELC-production </t>
   </si>
   <si>
     <t>HETC</t>
@@ -982,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1044,7 +1050,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1390,7 +1395,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9065,121 +9070,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C3:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C5" s="3"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C6" s="3"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="C3:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:H9"/>
   <sheetViews>
@@ -9196,7 +9086,7 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -9289,12 +9179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9303,109 +9193,109 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="28">
+      <c r="E6" s="30"/>
+      <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>1</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>1</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27">
         <v>1</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
         <v>1</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28">
+      <c r="G8" s="27"/>
+      <c r="H8" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>1</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>1</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>1</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9413,6 +9303,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9635,12 +9531,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9651,6 +9541,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9669,15 +9568,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
   <ds:schemaRefs>

--- a/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/TIMES-DE/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -5,18 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julius Steensberg\OneDrive\Desktop\GitHub\Bachelor_Git\TIMES-DE\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\DTU\TIMES-DE\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEDE2B4-EB3A-4A64-B350-9F458E24A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E40CD-2C02-4B2A-9666-004A2D073C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14136" yWindow="348" windowWidth="25704" windowHeight="15948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ELCC" sheetId="5" r:id="rId1"/>
-    <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="HETC" sheetId="10" r:id="rId3"/>
-    <sheet name="HETD" sheetId="11" r:id="rId4"/>
+    <sheet name="BI" sheetId="13" r:id="rId1"/>
+    <sheet name="Uni" sheetId="5" r:id="rId2"/>
+    <sheet name="35 (2)" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="248">
   <si>
     <t>~TradeLinks</t>
   </si>
@@ -860,7 +859,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,6 +974,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -988,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1054,6 +1059,8 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1079,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1391,25 +1398,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F781D5-E7FF-452F-B049-9C2EDF8539B3}">
+  <dimension ref="B3:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K14:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="31"/>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1435,11 +1697,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="26"/>
       <c r="K5" t="s">
         <v>8</v>
@@ -1448,20 +1710,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
+      <c r="E6" s="31"/>
       <c r="K6" t="s">
         <v>9</v>
       </c>
@@ -1469,22 +1725,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
+      <c r="F7" s="32"/>
       <c r="K7" t="s">
         <v>10</v>
       </c>
@@ -1492,38 +1740,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>11</v>
       </c>
@@ -1534,27 +1769,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet49">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AV177"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" style="4"/>
+    <col min="2" max="2" width="3.77734375" style="4"/>
     <col min="3" max="24" width="6" style="4" customWidth="1"/>
-    <col min="25" max="33" width="5.36328125" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="3.81640625" style="4"/>
+    <col min="25" max="33" width="5.33203125" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="3.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>245</v>
       </c>
@@ -1601,7 +1836,7 @@
       <c r="AU1"/>
       <c r="AV1"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>244</v>
       </c>
@@ -1648,7 +1883,7 @@
       <c r="AU2"/>
       <c r="AV2"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>243</v>
       </c>
@@ -1695,7 +1930,7 @@
       <c r="AU3"/>
       <c r="AV3"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1739,7 +1974,7 @@
       <c r="AU4"/>
       <c r="AV4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>242</v>
       </c>
@@ -1786,7 +2021,7 @@
       <c r="AU5"/>
       <c r="AV5"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>241</v>
       </c>
@@ -1833,7 +2068,7 @@
       <c r="AU6"/>
       <c r="AV6"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>240</v>
       </c>
@@ -1880,7 +2115,7 @@
       <c r="AU7"/>
       <c r="AV7"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>239</v>
       </c>
@@ -1927,7 +2162,7 @@
       <c r="AU8"/>
       <c r="AV8"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>238</v>
       </c>
@@ -1974,7 +2209,7 @@
       <c r="AU9"/>
       <c r="AV9"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>237</v>
       </c>
@@ -2021,7 +2256,7 @@
       <c r="AU10"/>
       <c r="AV10"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>236</v>
       </c>
@@ -2068,7 +2303,7 @@
       <c r="AU11"/>
       <c r="AV11"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>235</v>
       </c>
@@ -2118,7 +2353,7 @@
       <c r="AU12"/>
       <c r="AV12"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>234</v>
       </c>
@@ -2168,7 +2403,7 @@
       <c r="AU13"/>
       <c r="AV13"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>233</v>
       </c>
@@ -2218,7 +2453,7 @@
       <c r="AU14"/>
       <c r="AV14"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2266,7 +2501,7 @@
       <c r="AU15"/>
       <c r="AV15"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -2310,7 +2545,7 @@
       <c r="AU16"/>
       <c r="AV16"/>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>232</v>
       </c>
@@ -2362,7 +2597,7 @@
       <c r="AU17"/>
       <c r="AV17"/>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
@@ -2471,7 +2706,7 @@
       <c r="AU18"/>
       <c r="AV18"/>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2016</v>
       </c>
@@ -2525,7 +2760,7 @@
       <c r="AU19"/>
       <c r="AV19"/>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2016</v>
       </c>
@@ -2589,7 +2824,7 @@
       <c r="AU20"/>
       <c r="AV20"/>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2016</v>
       </c>
@@ -2653,7 +2888,7 @@
       <c r="AU21"/>
       <c r="AV21"/>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2016</v>
       </c>
@@ -2721,7 +2956,7 @@
       <c r="AU22"/>
       <c r="AV22"/>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2016</v>
       </c>
@@ -2789,7 +3024,7 @@
       <c r="AU23"/>
       <c r="AV23"/>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2016</v>
       </c>
@@ -2853,7 +3088,7 @@
       <c r="AU24"/>
       <c r="AV24"/>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2016</v>
       </c>
@@ -2915,7 +3150,7 @@
       <c r="AU25"/>
       <c r="AV25"/>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2016</v>
       </c>
@@ -2969,7 +3204,7 @@
       <c r="AU26"/>
       <c r="AV26"/>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>2016</v>
       </c>
@@ -3024,7 +3259,7 @@
       <c r="AU27"/>
       <c r="AV27"/>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2016</v>
       </c>
@@ -3086,7 +3321,7 @@
       <c r="AU28"/>
       <c r="AV28"/>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -3140,7 +3375,7 @@
       <c r="AU29"/>
       <c r="AV29"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2016</v>
       </c>
@@ -3196,7 +3431,7 @@
       <c r="AU30"/>
       <c r="AV30"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>2016</v>
       </c>
@@ -3250,7 +3485,7 @@
       <c r="AU31"/>
       <c r="AV31"/>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>2016</v>
       </c>
@@ -3308,7 +3543,7 @@
       <c r="AU32"/>
       <c r="AV32"/>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>2016</v>
       </c>
@@ -3372,7 +3607,7 @@
       <c r="AU33"/>
       <c r="AV33"/>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>2016</v>
       </c>
@@ -3436,7 +3671,7 @@
       <c r="AU34"/>
       <c r="AV34"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>2016</v>
       </c>
@@ -3500,7 +3735,7 @@
       <c r="AU35"/>
       <c r="AV35"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>2016</v>
       </c>
@@ -3562,7 +3797,7 @@
       <c r="AU36"/>
       <c r="AV36"/>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>2016</v>
       </c>
@@ -3624,7 +3859,7 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>2016</v>
       </c>
@@ -3681,7 +3916,7 @@
       <c r="AU38"/>
       <c r="AV38"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>2016</v>
       </c>
@@ -3743,7 +3978,7 @@
       <c r="AU39"/>
       <c r="AV39"/>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>2016</v>
       </c>
@@ -3807,7 +4042,7 @@
       <c r="AU40"/>
       <c r="AV40"/>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>2016</v>
       </c>
@@ -3873,7 +4108,7 @@
       <c r="AU41"/>
       <c r="AV41"/>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>2016</v>
       </c>
@@ -3939,7 +4174,7 @@
       <c r="AU42"/>
       <c r="AV42"/>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>2016</v>
       </c>
@@ -4001,7 +4236,7 @@
       <c r="AU43"/>
       <c r="AV43"/>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>2016</v>
       </c>
@@ -4065,7 +4300,7 @@
       <c r="AU44"/>
       <c r="AV44"/>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>2016</v>
       </c>
@@ -4129,7 +4364,7 @@
       <c r="AU45"/>
       <c r="AV45"/>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>2016</v>
       </c>
@@ -4193,7 +4428,7 @@
       <c r="AU46"/>
       <c r="AV46"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>2016</v>
       </c>
@@ -4253,7 +4488,7 @@
       <c r="AU47"/>
       <c r="AV47"/>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>2016</v>
       </c>
@@ -4311,7 +4546,7 @@
       <c r="AU48"/>
       <c r="AV48"/>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>200</v>
       </c>
@@ -4348,7 +4583,7 @@
       <c r="AU49"/>
       <c r="AV49"/>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>199</v>
       </c>
@@ -4385,7 +4620,7 @@
       <c r="AU50"/>
       <c r="AV50"/>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="L51" s="12"/>
@@ -4419,7 +4654,7 @@
       <c r="AU51"/>
       <c r="AV51"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="L52" s="12"/>
@@ -4453,7 +4688,7 @@
       <c r="AU52"/>
       <c r="AV52"/>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="L53" s="12"/>
@@ -4487,7 +4722,7 @@
       <c r="AU53"/>
       <c r="AV53"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="L54" s="12"/>
@@ -4521,7 +4756,7 @@
       <c r="AU54"/>
       <c r="AV54"/>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>198</v>
       </c>
@@ -4557,7 +4792,7 @@
       <c r="AU55"/>
       <c r="AV55"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>197</v>
       </c>
@@ -4597,7 +4832,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>195</v>
       </c>
@@ -4637,7 +4872,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
         <v>193</v>
       </c>
@@ -4677,7 +4912,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>191</v>
       </c>
@@ -4717,7 +4952,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>189</v>
       </c>
@@ -4757,7 +4992,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>187</v>
       </c>
@@ -4797,7 +5032,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>185</v>
       </c>
@@ -4837,7 +5072,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>183</v>
       </c>
@@ -4877,7 +5112,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>181</v>
       </c>
@@ -4917,7 +5152,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>179</v>
       </c>
@@ -4957,7 +5192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>177</v>
       </c>
@@ -4997,7 +5232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>175</v>
       </c>
@@ -5037,7 +5272,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>173</v>
       </c>
@@ -5077,7 +5312,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>171</v>
       </c>
@@ -5117,7 +5352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>169</v>
       </c>
@@ -5157,7 +5392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>168</v>
       </c>
@@ -5197,7 +5432,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>167</v>
       </c>
@@ -5237,7 +5472,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>166</v>
       </c>
@@ -5277,7 +5512,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>164</v>
       </c>
@@ -5317,7 +5552,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>162</v>
       </c>
@@ -5357,7 +5592,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>161</v>
       </c>
@@ -5397,7 +5632,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>160</v>
       </c>
@@ -5437,7 +5672,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>159</v>
       </c>
@@ -5477,7 +5712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>157</v>
       </c>
@@ -5517,7 +5752,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>156</v>
       </c>
@@ -5557,7 +5792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>155</v>
       </c>
@@ -5597,7 +5832,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>153</v>
       </c>
@@ -5637,7 +5872,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -5672,7 +5907,7 @@
       <c r="AF83"/>
       <c r="AG83"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -5707,7 +5942,7 @@
       <c r="AF84"/>
       <c r="AG84"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>151</v>
       </c>
@@ -5744,7 +5979,7 @@
       <c r="AF85"/>
       <c r="AG85"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>150</v>
       </c>
@@ -5784,7 +6019,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>148</v>
       </c>
@@ -5824,7 +6059,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>146</v>
       </c>
@@ -5864,7 +6099,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>143</v>
       </c>
@@ -5904,7 +6139,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>143</v>
       </c>
@@ -5944,7 +6179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>142</v>
       </c>
@@ -5984,7 +6219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>140</v>
       </c>
@@ -6024,7 +6259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>138</v>
       </c>
@@ -6064,7 +6299,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>136</v>
       </c>
@@ -6104,7 +6339,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>134</v>
       </c>
@@ -6144,7 +6379,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>133</v>
       </c>
@@ -6184,7 +6419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>132</v>
       </c>
@@ -6224,7 +6459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>131</v>
       </c>
@@ -6264,7 +6499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>130</v>
       </c>
@@ -6304,7 +6539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
         <v>128</v>
       </c>
@@ -6344,7 +6579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
         <v>126</v>
       </c>
@@ -6384,7 +6619,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
         <v>124</v>
       </c>
@@ -6424,7 +6659,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>122</v>
       </c>
@@ -6464,7 +6699,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>120</v>
       </c>
@@ -6504,7 +6739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>118</v>
       </c>
@@ -6544,7 +6779,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>116</v>
       </c>
@@ -6584,7 +6819,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>114</v>
       </c>
@@ -6624,7 +6859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
         <v>112</v>
       </c>
@@ -6664,7 +6899,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
         <v>110</v>
       </c>
@@ -6704,7 +6939,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
         <v>108</v>
       </c>
@@ -6744,7 +6979,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="11" t="s">
         <v>106</v>
       </c>
@@ -6784,7 +7019,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="11" t="s">
         <v>104</v>
       </c>
@@ -6824,7 +7059,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" s="11" t="s">
         <v>100</v>
       </c>
@@ -6864,7 +7099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>98</v>
       </c>
@@ -6904,7 +7139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
         <v>100</v>
       </c>
@@ -6944,7 +7179,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="11" t="s">
         <v>98</v>
       </c>
@@ -6984,7 +7219,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
         <v>96</v>
       </c>
@@ -7024,7 +7259,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
         <v>94</v>
       </c>
@@ -7064,7 +7299,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
         <v>92</v>
       </c>
@@ -7104,7 +7339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
         <v>90</v>
       </c>
@@ -7144,7 +7379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="11" t="s">
         <v>88</v>
       </c>
@@ -7184,7 +7419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>86</v>
       </c>
@@ -7224,7 +7459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>84</v>
       </c>
@@ -7264,7 +7499,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>82</v>
       </c>
@@ -7304,7 +7539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>80</v>
       </c>
@@ -7344,7 +7579,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>78</v>
       </c>
@@ -7384,7 +7619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>76</v>
       </c>
@@ -7424,7 +7659,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>75</v>
       </c>
@@ -7464,7 +7699,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -7499,7 +7734,7 @@
       <c r="AF129"/>
       <c r="AG129"/>
     </row>
-    <row r="130" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>73</v>
       </c>
@@ -7542,7 +7777,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>70</v>
       </c>
@@ -7581,7 +7816,7 @@
       <c r="AU131"/>
       <c r="AV131"/>
     </row>
-    <row r="132" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>69</v>
       </c>
@@ -7627,7 +7862,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="133" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>67</v>
       </c>
@@ -7670,7 +7905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>65</v>
       </c>
@@ -7716,7 +7951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>63</v>
       </c>
@@ -7759,7 +7994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>61</v>
       </c>
@@ -7805,7 +8040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>59</v>
       </c>
@@ -7848,7 +8083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>57</v>
       </c>
@@ -7894,7 +8129,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>55</v>
       </c>
@@ -7937,7 +8172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>53</v>
       </c>
@@ -7983,7 +8218,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="141" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A141" s="11" t="s">
         <v>51</v>
       </c>
@@ -8026,7 +8261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A142" s="11" t="s">
         <v>49</v>
       </c>
@@ -8072,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A143" s="11" t="s">
         <v>47</v>
       </c>
@@ -8115,7 +8350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A144" s="11" t="s">
         <v>45</v>
       </c>
@@ -8161,7 +8396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A145" s="11" t="s">
         <v>43</v>
       </c>
@@ -8204,7 +8439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A146" s="11" t="s">
         <v>41</v>
       </c>
@@ -8250,7 +8485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
         <v>39</v>
       </c>
@@ -8293,7 +8528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
         <v>37</v>
       </c>
@@ -8339,7 +8574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
         <v>35</v>
       </c>
@@ -8382,7 +8617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A150" s="11" t="s">
         <v>33</v>
       </c>
@@ -8428,7 +8663,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="151" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A151" s="11" t="s">
         <v>31</v>
       </c>
@@ -8471,7 +8706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A152" s="11" t="s">
         <v>29</v>
       </c>
@@ -8517,7 +8752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A153" s="11" t="s">
         <v>27</v>
       </c>
@@ -8560,7 +8795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A154" s="11" t="s">
         <v>25</v>
       </c>
@@ -8606,7 +8841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>23</v>
       </c>
@@ -8649,7 +8884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A156" s="11" t="s">
         <v>21</v>
       </c>
@@ -8695,7 +8930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A157" s="11" t="s">
         <v>19</v>
       </c>
@@ -8738,7 +8973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A158" s="11" t="s">
         <v>17</v>
       </c>
@@ -8784,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A159" s="11" t="s">
         <v>15</v>
       </c>
@@ -8829,7 +9064,7 @@
       <c r="AU159"/>
       <c r="AV159"/>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A160" s="11" t="s">
         <v>12</v>
       </c>
@@ -8866,7 +9101,7 @@
       <c r="AU160"/>
       <c r="AV160"/>
     </row>
-    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -8879,7 +9114,7 @@
       <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -8891,7 +9126,7 @@
       <c r="I163" s="8"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -8903,7 +9138,7 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -8915,7 +9150,7 @@
       <c r="I165" s="8"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -8927,7 +9162,7 @@
       <c r="I166" s="6"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -8939,7 +9174,7 @@
       <c r="I167" s="6"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -8951,7 +9186,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -8963,7 +9198,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -8975,7 +9210,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -8987,7 +9222,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -8999,7 +9234,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -9011,7 +9246,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -9023,7 +9258,7 @@
       <c r="I174" s="8"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -9035,7 +9270,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -9047,7 +9282,7 @@
       <c r="I176" s="8"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9069,239 +9304,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="C3:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="C3:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C5" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C6" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="27">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C7" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9309,6 +9311,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9531,15 +9542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
   <ds:schemaRefs>
@@ -9550,6 +9552,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9566,12 +9576,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>